--- a/data_excel/urrea/URREA.xlsx
+++ b/data_excel/urrea/URREA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G261"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,28 +472,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9500b</t>
+          <t>ACM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Juego Extractor Cola Cochino Para Tornillos 5 Pz Urrea 9500b</t>
+          <t>Aceite Mineral Para Compresor 946ml Acm Urrea</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>219</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>221</v>
+      </c>
+      <c r="F2" t="n">
+        <v>201.24</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -501,22 +499,28 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AVE14</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Linterna A Prueba De Agua 350 Lumenes Bateria 3a Urrea Lpa35</t>
+          <t>Avellanador 1/4 - 3/4 Ave14 Urrea</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>600</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
+        <v>860</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -524,26 +528,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LPA35</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Linterna A Prueba De Agua 350 Lumenes Bateria 3a Urrea Lpa35</t>
+          <t>Banco Para Mecánico 75cm Acolchonada 9988 Urrea</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>600</v>
+        <v>1850</v>
       </c>
       <c r="F4" t="n">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -551,22 +551,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BNL</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Grifo Para Tambo (tambo Plástico O De Metal) Urrea 23641</t>
+          <t>Base Para Nivel Láser Rosca 1/4´´ Elevación De 8cm Bnl Urrea</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>530</v>
+        <v>280</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -574,26 +578,26 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23641</t>
+          <t>CPU17A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Grifo Para Tambo (tambo Plástico O De Metal) Urrea 23641</t>
+          <t>Caja De Herramientas Urrea Cpu17a Plástica Negra</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="F6" t="n">
-        <v>476.4</v>
+        <v>479.46</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -601,22 +605,28 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CPU20A</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Linterna A Prueba De Agua 100 Lm A Baterías Urrea Lpa10</t>
+          <t>Caja De Herramientas Urrea Cpu20a De Plástico 29cm X 53cm X 26cm Negra</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>382</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
+        <v>528</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -624,26 +634,28 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LPA10</t>
+          <t>CPU20A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Linterna A Prueba De Agua 100 Lm A Baterías Urrea Lpa10</t>
+          <t>Caja De Herramientas Urrea Cpu20a De Plástico Negra</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>382</v>
-      </c>
-      <c r="F8" t="n">
-        <v>277.77</v>
+        <v>528</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -651,26 +663,26 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9980P</t>
+          <t>9991A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Carro Utilitario Plástico 3 Anaqueles Urrea 9980p</t>
+          <t>Cama Para Mecánico Plástica 6 Ruedas Giratorias 9991a Urrea</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5550</v>
+        <v>1450</v>
       </c>
       <c r="F9" t="n">
-        <v>4490.94</v>
+        <v>1390</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -678,22 +690,28 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9980P</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Protector Facial Anatómico Usfs1 Urrea</t>
+          <t>Carro Utilitario Plástico 3 Anaqueles Urrea 9980p</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>550</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
+        <v>5550</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -701,26 +719,26 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>USFS1</t>
+          <t>R470078</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Protector Facial Anatómico Usfs1 Urrea</t>
+          <t>Cartucho 312 Vástago Para Regadera R470078 Urrea</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>550</v>
+        <v>185</v>
       </c>
       <c r="F11" t="n">
-        <v>443.41</v>
+        <v>165</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -728,22 +746,28 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>R280443</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Caja De Herramientas Urrea Cpu17a Plástica Negra</t>
+          <t>Cartucho Cerámico Derecho Chico R280443 Urrea</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>535</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -751,26 +775,28 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CPU17A</t>
+          <t>R280443</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Caja De Herramientas Urrea Cpu17a Plástica Negra</t>
+          <t>Cartucho Cerámico Derecho Chico R280443 Urrea Acabado Cromado Color Plateado</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>535</v>
-      </c>
-      <c r="F13" t="n">
-        <v>479.46</v>
+        <v>198</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -778,26 +804,26 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NL2E</t>
+          <t>USH02B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nivel Láser De Líneas Urrea Nl2e 7m</t>
+          <t>Casco De Seguridad C/ajuste De Intervalos Azul Ush02b Urrea</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1138</v>
+        <v>145</v>
       </c>
       <c r="F14" t="n">
-        <v>887</v>
+        <v>128.29</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -805,26 +831,26 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NL2</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nivel Láser De Líneas Urrea Nl2 10m</t>
+          <t>Charola Magnética Rectangular 14 Cm X 24 Cm 2303 Urrea</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1664</v>
+        <v>252</v>
       </c>
       <c r="F15" t="n">
-        <v>1556.25</v>
+        <v>231.59</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -832,26 +858,26 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NL2E</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nivel Láser De Líneas Urrea Nl2e 7m</t>
+          <t>Charola Magnética Redonda 15 Cm De Diámetro 2302 Urrea</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1138</v>
+        <v>152</v>
       </c>
       <c r="F16" t="n">
-        <v>887</v>
+        <v>136</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -859,26 +885,26 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NL2</t>
+          <t>USC01M</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nivel Láser Semiautomático 2 Líneas Urrea</t>
+          <t>Cinturón Para Liniero Talla 40 Usc01m Urrea</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1664</v>
+        <v>1035</v>
       </c>
       <c r="F17" t="n">
-        <v>1556.25</v>
+        <v>876.3</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -886,26 +912,26 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1599LSW</t>
+          <t>CCRPINOX.37</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Flexómetro De Acero Inoxidable 10m X 30 Mm 1599lsw Urrea</t>
+          <t>Coladera Cuadrada Rejilla Perforada Negra Ccrpinox.37 Urrea</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>390</v>
+        <v>1075</v>
       </c>
       <c r="F18" t="n">
-        <v>275</v>
+        <v>1029</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -913,26 +939,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>258MP</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pinza Para Electricista Univ 8 Multi Propósitos 258mp Urrea </t>
+          <t>Coladera Cuadrada Rejilla Redonda Negra Ccrrinox.37 Urrea</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>538</v>
+        <v>760</v>
       </c>
       <c r="F19" t="n">
-        <v>478.8</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -940,26 +962,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>259GHL</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pinza Electricista Alta Palanca Poncha 9-5/16in 259ghl Urrea</t>
+          <t>Compresor 2hp 25 Litros Comp825 Urrea</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>590</v>
+        <v>7340</v>
       </c>
       <c r="F20" t="n">
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -967,26 +985,26 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>212G</t>
+          <t>COMP824L</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pinza Corte Al Ras Para Plástico 6 212g Urrea</t>
+          <t>Compresor De Aire Eléctrico  Urrea Comp824l 24l 1.5hp 127v</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>468</v>
+        <v>10200</v>
       </c>
       <c r="F21" t="n">
-        <v>395</v>
+        <v>8827.76</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -994,26 +1012,26 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JDPU117</t>
+          <t>COMP824L</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kit Desarmador Destor.reparacion Celular 117pz Jdpu117 Urrea</t>
+          <t>Compresor De Aire Eléctrico Comp824l Monofásico 24l Urrea</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>585</v>
+        <v>10200</v>
       </c>
       <c r="F22" t="n">
-        <v>569</v>
+        <v>8827.76</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1021,26 +1039,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>209GCA</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pinza Electricista Corte Diagonal Compuesta 7 209gca Urrea</t>
+          <t>Compresor De Aire Eléctrico Portátil Comp850 Urrea</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>480</v>
+        <v>9590</v>
       </c>
       <c r="F23" t="n">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1048,26 +1062,22 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>5449B</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Matraca 1/2 Pulgada Reversible 48 Dientes Black 5449b Urrea</t>
+          <t>Compresora Industrial Urrea 2hp 25 Litros Con Manometro Fase Eléctrica Monofásica Frecuencia 60 Hz</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>710</v>
+        <v>7340</v>
       </c>
       <c r="F24" t="n">
-        <v>596.88</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1075,28 +1085,22 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>UPWL2</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Filtro Regulador Y Lubricador De Aire 1/4 Npt Upwl2 Urrea </t>
+          <t>Compresora Uso Continuo 2.5hp 50 Litros Con Manometro Urrea Color Negro Frecuencia 60 Hz</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1060</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>9590</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1104,28 +1108,26 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5200CB</t>
+          <t>UP874</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Juego De Dados Y Accesorios Combinados 33 Pzas Urrea 5200cb</t>
+          <t>Cortadora Neumática De Disco 3 20000rpm Up874 Urrea</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1590</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1465</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1120</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1133,26 +1135,26 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UNT12</t>
+          <t>DDIC45</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nivel Tipo Torpedo 9 Pulgadas 3 Burbujas Unt12 Urrea</t>
+          <t>Disco De Diamante Continuo, 4-1/2 Ddic45 Urrea</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>440</v>
+        <v>113</v>
       </c>
       <c r="F27" t="n">
-        <v>383.19</v>
+        <v>101.75</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1160,22 +1162,26 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DDIC45</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Banco Para Mecánico 75cm Acolchonada 9988 Urrea</t>
+          <t>Disco De Diamante Continuo, 4-1/2 Urrea</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1850</v>
+        <v>113</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>101.75</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1183,26 +1189,28 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>23640</t>
+          <t>R207025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Llave Para Tapa De Tambo 23640 Urrea</t>
+          <t>Disco De Hule Repuesto Para Vástago 10 Pzs R207025 Urrea</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>500</v>
-      </c>
-      <c r="F29" t="n">
-        <v>440.31</v>
+        <v>90</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1214,22 +1222,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2700LP</t>
+          <t>JCD01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Juego De 4 Pinzas De Presión Uso Industrial 2700lp Urrea</t>
+          <t>Estuche Con Matraca Reversible Y Dados 63 Piezas Jcd01 Urrea</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>930</v>
+        <v>1585</v>
       </c>
       <c r="F30" t="n">
-        <v>885.09</v>
+        <v>1188.75</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1237,22 +1245,28 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
-      </c>
-      <c r="B31" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>JDPU48</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Juego De 9 Pinzas De Precisión Esd Con Estuche Urrea Jppu9</t>
+          <t>Estuche De 48 Puntas Intercambiables Jdpu48 Urrea</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>450</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1260,19 +1274,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Juego De 10 Destornilladores Bimaterial Comb Urrea 8600f</t>
+          <t>Extensión De 1/4x10 4762 Urrea</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>683</v>
+        <v>144</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1283,26 +1297,22 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2318</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Opresor De Anillos 3-5 Acanadado 2318 Urrea</t>
+          <t>Extensión De 1/4x6 4761 Urrea</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>489</v>
+        <v>145</v>
       </c>
       <c r="F33" t="n">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1314,22 +1324,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9600G</t>
+          <t>526006</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Juego De 6 Destornilladores Ámbar Combinado Urrea 9600g</t>
+          <t>Extensión De 3/8x6 Adaptador Para Dado Cuadro 526006 Urrea</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>450</v>
-      </c>
-      <c r="F34" t="n">
-        <v>382</v>
+        <v>129</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1337,26 +1349,28 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9201B</t>
+          <t>4765</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Juego Herramienta Eléctrica Urrea 9201b</t>
+          <t>Extensión Flexible 1/4 X 6 4765 Urrea</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>950</v>
-      </c>
-      <c r="F35" t="n">
-        <v>945</v>
+        <v>128</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1364,26 +1378,26 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9700C</t>
+          <t>10607B</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Juego 5 Desarmadores Aislados 1000v Urrea 9700c</t>
+          <t>Extensión Impacto 1 X 7  Con Balín 10607b Urrea</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>425</v>
+        <v>1485</v>
       </c>
       <c r="F36" t="n">
-        <v>420</v>
+        <v>1325.82</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1391,28 +1405,22 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CPU20A</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Caja De Herramientas Urrea Cpu20a De Plástico 29cm X 53cm X 26cm Negra</t>
+          <t>Extensión Impacto 1/2 X5 7181p Urrea</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>528</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>180</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1420,22 +1428,28 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
-      </c>
-      <c r="B38" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6965</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Caja De Herramientas Urrea Cpu20a De Plástico Negra</t>
+          <t>Extensión Impacto 1/4x6 6965 Urrea</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>528</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1443,23 +1457,23 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CPU20A</t>
+          <t>UPWL4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Caja De Herramientas Urrea Cpu20a De Plástico Negra</t>
+          <t>Filtro Regulador Y Lubricador De Aire 1/2´´ Npt Upwl4 Urrea</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>528</v>
+        <v>2025</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1472,23 +1486,23 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JBUD02</t>
+          <t>UPWL2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Juego De 10 Destornilladores Ámbar Combinado Jbud02 Urrea</t>
+          <t>Filtro Regulador Y Lubricador De Aire 1/4 Npt Upwl2 Urrea</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>595</v>
+        <v>1060</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1501,26 +1515,26 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5466RS</t>
+          <t>1599LSW</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Juego De Refacción Mango Articulado 1/2 5466rs Urrea</t>
+          <t>Flexómetro De Acero Inoxidable 10m X 30 Mm 1599lsw Urrea</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="F41" t="n">
-        <v>174.47</v>
+        <v>275</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1528,26 +1542,26 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>49822</t>
+          <t>USLG1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Juego 22 Llaves Hexagonales L Comb Punta Bola Urrea 49822</t>
+          <t>Googles Ventilación Por Canal Uslg1 Urrea</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>680</v>
+        <v>215</v>
       </c>
       <c r="F42" t="n">
-        <v>646</v>
+        <v>170</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1555,26 +1569,28 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>9444INOX</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pinza Pelacables Para Fibra Óptica 310 Urrea</t>
+          <t>Grifo De Cocina  Monomando Urrea 9444inox  Acero Inoxidable</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>621</v>
-      </c>
-      <c r="F43" t="n">
-        <v>552.75</v>
+        <v>2939</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1582,26 +1598,26 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3002B</t>
+          <t>23641</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Regadera Con Brazo Y Chapetón Urrea 3002b Acabado Cromado Color Plateado</t>
+          <t>Grifo Para Tambo (tambo Plástico O De Metal) Urrea 23641</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>792</v>
+        <v>530</v>
       </c>
       <c r="F44" t="n">
-        <v>669</v>
+        <v>476.4</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1609,22 +1625,26 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USGGG</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Regadera Con Brazo Y Chapetón 8.6 Cm Diámetro 3002b Urrea</t>
+          <t>Guante Mecánico Talla Grande Usggg Urrea</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>792</v>
+        <v>398</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>272.19</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1632,26 +1652,26 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3002B</t>
+          <t>USGDM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Regadera Con Brazo Y Chapetón 8.6 Cm Diámetro 3002b Urrea</t>
+          <t>Guante Supraneema/nitrilo Mediana Usgdm Urrea</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>792</v>
+        <v>208</v>
       </c>
       <c r="F46" t="n">
-        <v>669</v>
+        <v>150.6</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1659,28 +1679,26 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>298B</t>
+          <t>HG865</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Regadera Bych Olimpica Urrea 298b Cromo Acabado Cromado</t>
+          <t>Hidrolavadora A Gasolina 3,200 Psi 6.5 Hp Hg865 Urrea</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1043</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>26100</v>
+      </c>
+      <c r="F47" t="n">
+        <v>23407.87</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1688,26 +1706,28 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2260B.9</t>
+          <t>508YZ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Regadera Urrea 2260b.9 20cm Con Brazo Y Chapetón Neo Acabado Acero Inoxidable Color Acero Inoxidable</t>
+          <t>Jabonera De Empotrar Cromo 508yz Urrea</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>2036</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1890.4</v>
+        <v>830</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1715,22 +1735,28 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
-      </c>
-      <c r="B49" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>52122</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Regadera Urrea 2260b.9 20cm Con Brazo Y Chapetón</t>
+          <t>Juego 10 Dados Cuadro De 3/8 Pulgadas C6 Puntas 52122 Urrea</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>2036</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1738,26 +1764,28 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2260B.9</t>
+          <t>52107</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Regadera Urrea 2260b.9 20cm Con Brazo Y Chapetón</t>
+          <t>Juego 10 Dados Largos Cuadro De 3/8'' 12 Puntas 52107 Urrea</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>2036</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1890.4</v>
+        <v>670</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1765,26 +1793,28 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>295B</t>
+          <t>52111</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Regadera Con Brazo Y Chapeton (cromo) Urrea Tpva 295b Acabado Cromado Color Plateado</t>
+          <t>Juego 10 Dados Largos Pulgadas Cuadro De 3/8 52111 Urrea</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>798</v>
-      </c>
-      <c r="F51" t="n">
-        <v>792</v>
+        <v>670</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1792,19 +1822,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Regadera Con Brazo Y Chapetón 295b Urrea</t>
+          <t>Juego 10 Dados Pulgadas Cuadro De 3/8 C12 Puntas 52118 Urrea</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>798</v>
+        <v>490</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -1815,26 +1845,26 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>295B</t>
+          <t>J6011</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Regadera Con Brazo Y Chapetón 295b Urrea</t>
+          <t>Juego 11 Puntas Brístol, Zanco 3/8'' + Caja Metálica Urrea</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>798</v>
+        <v>635</v>
       </c>
       <c r="F53" t="n">
-        <v>792</v>
+        <v>568.01</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1842,23 +1872,23 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R280443</t>
+          <t>52216</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Cartucho Cerámico Derecho Chico R280443 Urrea Acabado Cromado Color Plateado</t>
+          <t>Juego 12 Dados Métricos Cuadro De 3/8 C12 Puntas 52216 Urrea</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>198</v>
+        <v>508</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1871,23 +1901,23 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R207025</t>
+          <t>52212</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Disco De Hule Repuesto Para Vástago 10 Pzs R207025 Urrea</t>
+          <t>Juego 12 Dados Métricos Cuadro De 3/8 C6 Puntas 52212 Urrea</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>90</v>
+        <v>508</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1900,22 +1930,28 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>54214</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Regadera Redonda Con Brazo Y Chapetón Cromo 2260b Urrea</t>
+          <t>Juego 15 Dados Métricos Cuadro De 1/2 12 Puntas 54214 Urrea</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1935</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
+        <v>860</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1923,26 +1959,26 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2260B</t>
+          <t>CH313</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Regadera Redonda Con Brazo Y Chapetón Cromo 2260b Urrea</t>
+          <t>Juego 15 Llaves Comb Matraca Métrico Industrial Ch313 Urrea</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1935</v>
+        <v>4920</v>
       </c>
       <c r="F57" t="n">
-        <v>1639</v>
+        <v>4394.2</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1950,26 +1986,26 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PVU01</t>
+          <t>CH313</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Probador De Voltaje Sin Contacto 24v A 1000v Pvu01 Urrea</t>
+          <t>Juego 15 Llaves Combinadas Matraca Métrico Industrial Urrea</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>557</v>
+        <v>4920</v>
       </c>
       <c r="F58" t="n">
-        <v>545</v>
+        <v>4394.2</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1977,26 +2013,26 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>49822</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Charola Magnética Rectangular 14 Cm X 24 Cm 2303 Urrea</t>
+          <t>Juego 22 Llaves Hexagonales L Comb Punta Bola Urrea 49822</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>252</v>
+        <v>680</v>
       </c>
       <c r="F59" t="n">
-        <v>231.59</v>
+        <v>646</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2004,26 +2040,26 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>9700C</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Charola Magnética Redonda 15 Cm De Diámetro 2302 Urrea</t>
+          <t>Juego 5 Desarmadores Aislados 1000v Urrea 9700c</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>152</v>
+        <v>425</v>
       </c>
       <c r="F60" t="n">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2031,22 +2067,28 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>50</v>
-      </c>
-      <c r="B61" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>JUP54</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Disco De Diamante Continuo, 4-1/2 Ddic45 Urrea</t>
+          <t>Juego 54 Puntas Magneticas P/taladro Dest. Jup54 Urrea</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>113</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2054,26 +2096,28 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DDIC45</t>
+          <t>7400SWL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Disco De Diamante Continuo, 4-1/2 Ddic45 Urrea</t>
+          <t>Juego 6 Piezas Extractor Tuercas Barridas 7400swl Urrea</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>113</v>
-      </c>
-      <c r="F62" t="n">
-        <v>101.75</v>
+        <v>2830</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2081,26 +2125,28 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DDIC45</t>
+          <t>7400SWL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Disco De Diamante Continuo, 4-1/2 Urrea</t>
+          <t>Juego 6 Piezas Extractor Tuercas Barridas Doble Boca Urrea</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>113</v>
-      </c>
-      <c r="F63" t="n">
-        <v>101.75</v>
+        <v>2830</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2110,20 +2156,24 @@
       <c r="A64" t="n">
         <v>3</v>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>360D</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Monomando Regadera Cromo Empotrable Yaz 683yz Urrea</t>
+          <t>Juego 6 Pinzas Anillos De Retención Industriales Urrea 360d</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>4268</v>
+        <v>2320</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2315</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2131,26 +2181,26 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>683YZ</t>
+          <t>4990-7L</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Monomando Regadera Cromo Empotrable Yaz 683yz Urrea</t>
+          <t>Juego 7 Dados Largos Hexagonal En Pulgadas 3/8 4990-7l Urrea</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>4268</v>
+        <v>620</v>
       </c>
       <c r="F65" t="n">
-        <v>3968.68</v>
+        <v>552.26</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2158,28 +2208,22 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>7400SWL</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Juego 6 Piezas Extractor Tuercas Barridas Doble Boca Urrea</t>
+          <t>Juego De 10 Destornilladores Bimaterial Comb Urrea 8600f</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>2830</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>683</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2187,23 +2231,23 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7400SWL</t>
+          <t>JBUD02</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Juego 6 Piezas Extractor Tuercas Barridas 7400swl Urrea</t>
+          <t>Juego De 10 Destornilladores Ámbar Combinado Jbud02 Urrea</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>2830</v>
+        <v>595</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2216,22 +2260,28 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
-      </c>
-      <c r="B68" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>52218</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juego De Herramienta En Caja Metálica 130 Pzs Jcm02 Urrea </t>
+          <t>Juego De 17 Dados Y Matraca C/extension 3/8 52218 Urrea</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2899</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
+        <v>1265</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2239,26 +2289,28 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>JCM02</t>
+          <t>795G</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Juego De Herramienta En Caja Metálica 130 Pzs Jcm02 Urrea </t>
+          <t>Juego De 3 Llaves Ajustable Rubber Grip 795g Urrea</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>2899</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2536.52</v>
+        <v>1325</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2266,26 +2318,26 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BNL</t>
+          <t>795</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Base Para Nivel Láser Rosca 1/4´´ Elevación De 8cm Bnl Urrea</t>
+          <t>Juego De 3 Llaves Ajustables Cromadas 795 Urrea</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>280</v>
+        <v>1210</v>
       </c>
       <c r="F70" t="n">
-        <v>227</v>
+        <v>1147.6</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2293,26 +2345,26 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>JH01</t>
+          <t>795S</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Juego De Dados Y Accesorios Alta Dureza 230piezas Jh01 Urrea</t>
+          <t>Juego De 3 Llaves Ajustables Fosfatizadas 795s Urrea</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>5050</v>
+        <v>1185</v>
       </c>
       <c r="F71" t="n">
-        <v>4500</v>
+        <v>1175</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2320,22 +2372,26 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8</v>
-      </c>
-      <c r="B72" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>J200G</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Regadera 3 Funciones Brazo Y Chapetón Negro 3031fb.2 Urrea</t>
+          <t>Juego De 4 Diferentes Pinzas J200g Urrea</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>695</v>
+        <v>1410</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1210.97</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2343,26 +2399,26 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3031FB.2</t>
+          <t>2700LP</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Regadera 3 Funciones Brazo Y Chapetón Negro 3031fb.2 Urrea</t>
+          <t>Juego De 4 Pinzas De Presión Uso Industrial 2700lp Urrea</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>695</v>
+        <v>930</v>
       </c>
       <c r="F73" t="n">
-        <v>679</v>
+        <v>885.09</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2370,22 +2426,26 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
-      </c>
-      <c r="B74" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>JBUD01</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Hidrolavadora A Gasolina 3,200 Psi 6.5 Hp Hg865 Urrea</t>
+          <t>Juego De 5 Destornilladores Ámbar Combinados Urrea Jbud01</t>
         </is>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>26100</v>
+        <v>270</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2393,26 +2453,26 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>HG865</t>
+          <t>9600G</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Hidrolavadora A Gasolina 3,200 Psi 6.5 Hp Hg865 Urrea</t>
+          <t>Juego De 6 Destornilladores Ámbar Combinado Urrea 9600g</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>26100</v>
+        <v>450</v>
       </c>
       <c r="F75" t="n">
-        <v>23407.87</v>
+        <v>382</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2420,26 +2480,26 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>J200G</t>
+          <t>360A</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Juego De 4 Diferentes Pinzas J200g Urrea</t>
+          <t>Juego De 6 Pinzas Para Anillos De Retención Conv Urrea 360a</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1410</v>
+        <v>2910</v>
       </c>
       <c r="F76" t="n">
-        <v>1210.97</v>
+        <v>2464.83</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2447,28 +2507,22 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>5452FL</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Matraca Reversible Multiposiciones Cuadro 1/2 5452fl Urrea</t>
+          <t>Juego De 9 Pinzas De Precisión Esd Con Estuche Urrea Jppu9</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1455</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>450</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2476,26 +2530,26 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>JH01</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Pinza Para Abrazadera Junta Homocinética 2357 Urrea</t>
+          <t>Juego De Dados Y Accesorios Alta Dureza 230piezas Jh01 Urrea</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>540</v>
+        <v>5050</v>
       </c>
       <c r="F78" t="n">
-        <v>440.31</v>
+        <v>4500</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2503,23 +2557,23 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AVE14</t>
+          <t>5200CB</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Avellanador 1/4 - 3/4 Ave14 Urrea</t>
+          <t>Juego De Dados Y Accesorios Combinados 33 Pzas Urrea 5200cb</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>860</v>
+        <v>1590</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2532,28 +2586,26 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>52107</t>
+          <t>5400CB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Juego 10 Dados Largos Cuadro De 3/8'' 12 Puntas 52107 Urrea</t>
+          <t>Juego De Dados Y Accesorios Combinados 42 Pzas 5400cb Urrea</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>670</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3245</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1955</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2561,28 +2613,26 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>52218</t>
+          <t>5201CD</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Juego De 17 Dados Y Matraca C/extension 3/8 52218 Urrea</t>
+          <t>Juego De Dados Y Accesorios Combinados 47 Pzas 5201cd Urrea</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>1265</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1480</v>
+      </c>
+      <c r="F81" t="n">
+        <v>938.6</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2590,22 +2640,26 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6</v>
-      </c>
-      <c r="B82" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>JCM01</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Juego 10 Dados Pulgadas Cuadro De 3/8 C12 Puntas 52118 Urrea</t>
+          <t>Juego De Dados Y Accesorios En Caja 178 Piezas Jcm01 Urrea</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>490</v>
+        <v>5850</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>4764.56</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2613,28 +2667,26 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>52122</t>
+          <t>JDT25</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Juego 10 Dados Cuadro De 3/8 Pulgadas C6 Puntas 52122 Urrea</t>
+          <t>Juego De Destornilladores Trimaterial 25pz Jdt25 Urrea</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>480</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1020</v>
+      </c>
+      <c r="F83" t="n">
+        <v>891</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -2642,26 +2694,26 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JCM01</t>
+          <t>JCM02</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Juego De Dados Y Accesorios En Caja 178 Piezas Jcm01 Urrea</t>
+          <t>Juego De Herramienta En Caja Metálica 130 Pzs Jcm02 Urrea</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>5850</v>
+        <v>2899</v>
       </c>
       <c r="F84" t="n">
-        <v>4764.56</v>
+        <v>2536.52</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -2669,26 +2721,22 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>5400CB</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Juego De Dados Y Accesorios Combinados 42 Pzas 5400cb Urrea</t>
+          <t>Juego De Letras De Golpe 5 Mm (3/16 ) Urrea 42l5</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>3245</v>
+        <v>1089</v>
       </c>
       <c r="F85" t="n">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -2696,23 +2744,23 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JDPU48</t>
+          <t>52C</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Estuche De 48 Puntas Intercambiables Jdpu48 Urrea</t>
+          <t>Juego De Llaves De Empotrar Roscables Compactas 52c Urrea</t>
         </is>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2725,22 +2773,28 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4</v>
-      </c>
-      <c r="B87" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Regadera De Cebolla Sencilla C/brazo Y Chapetón 3007b Urrea</t>
+          <t>Juego De Llaves De Empotrar Soldable 652 Urrea</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>450</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0</v>
+        <v>730</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2748,28 +2802,26 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3007B</t>
+          <t>EO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Regadera De Cebolla Sencilla C/brazo Y Chapetón 3007b Urrea</t>
+          <t>Juego De Manerales Grandes Eo Urrea</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>450</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1159</v>
+      </c>
+      <c r="F88" t="n">
+        <v>993.28</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2777,26 +2829,26 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3036B</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Regadera 5 Funciones C/ Brazo Y Chapetón Urrea 3036b Cromo Acabado Cromado Color Plateado</t>
+          <t>Juego De Manerales Grandes Kg Urrea</t>
         </is>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>610</v>
+        <v>494</v>
       </c>
       <c r="F89" t="n">
-        <v>541.45</v>
+        <v>470</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2804,22 +2856,26 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>EO</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Regadera Con Brazo Y Chapetón 298b Urrea Acabado Cromo</t>
+          <t>Juego De Manerales Grandes Neo Urrea - Cromo Accesorios Baño</t>
         </is>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1043</v>
+        <v>1159</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>993.28</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2827,28 +2883,26 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>298B</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Regadera Con Brazo Y Chapetón 298b Urrea Acabado Cromo</t>
+          <t>Juego De Manerales Grandes Urrea Kg Zamac Acabado Cromo Acabado Cromado</t>
         </is>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1043</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>494</v>
+      </c>
+      <c r="F91" t="n">
+        <v>470</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -2856,22 +2910,26 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7</v>
-      </c>
-      <c r="B92" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CIX</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Regadera Abs 5 Funciones C/ Brazo Y Chapetón 3036b Urrea</t>
+          <t>Juego De Manerales Inox Cix Urrea</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>610</v>
+        <v>2650</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2175</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -2879,26 +2937,26 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>3036B</t>
+          <t>QG</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Regadera Abs 5 Funciones C/ Brazo Y Chapetón 3036b Urrea</t>
+          <t>Juego De Manerales Qg Cromo Zamak Urrea</t>
         </is>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>610</v>
+        <v>530</v>
       </c>
       <c r="F93" t="n">
-        <v>541.45</v>
+        <v>349</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -2906,23 +2964,23 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3007B</t>
+          <t>QGS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Regadera Redonda Cromada 8.5 Cm Con Brazo Baño Moderna Urrea Acabado Cromado Color Plateado</t>
+          <t>Juego De Manerales Queen Grande Sin Chapetón Qgs Urrea</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>450</v>
+        <v>379</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2935,28 +2993,26 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>VCR01.19</t>
+          <t>CIX</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Válvula De Compuerta Roscable 3/4'' Vcr01.19 Urrea</t>
+          <t>Juego De Manerales Urrea Grandes Inox Cix Mango En Cruz Acabado Mate Color Acero Inoxidable</t>
         </is>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>190</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2650</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2175</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -2964,22 +3020,28 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>UP711K</t>
+        </is>
+      </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Linterna De Alta Potencia Recargable Lapu1 Urrea</t>
+          <t>Juego De Martillo Neumático Con 5 Cinceles Up711k Urrea</t>
         </is>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
+        <v>2906</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2991,22 +3053,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LAPU1</t>
+          <t>J6011</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Linterna De Alta Potencia Recargable Lapu1 Urrea</t>
+          <t>Juego De Puntas Bristol Hexágono De 3/8´´ 11 Pz J6011 Urrea</t>
         </is>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>1000</v>
+        <v>635</v>
       </c>
       <c r="F97" t="n">
-        <v>830.46</v>
+        <v>568.01</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3014,22 +3076,26 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5</v>
-      </c>
-      <c r="B98" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5466RS</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Linterna Led Recargable Usb 600lm Lru6a Alarma Urrea</t>
+          <t>Juego De Refacción Mango Articulado 1/2 5466rs Urrea</t>
         </is>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>174.47</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -3041,22 +3107,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LRU6A</t>
+          <t>50900</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Linterna Led Recargable Usb 600lm Lru6a Alarma Urrea</t>
+          <t>Juego De Sacabocados 7 Piezas Para Láminas 50900 Urrea</t>
         </is>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>1200</v>
+        <v>2245</v>
       </c>
       <c r="F99" t="n">
-        <v>1050</v>
+        <v>2110.45</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -3064,26 +3130,26 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LRU6A</t>
+          <t>9600D</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Linterna De Led Recargable Con Alarma De 600 Lm Urrea Color De La Luz Blanco</t>
+          <t>Juego Desarmadores Combinados (8 Pzas),  Urrea 9600d</t>
         </is>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="F100" t="n">
-        <v>1178.51</v>
+        <v>494.25</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -3091,26 +3157,26 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>360D</t>
+          <t>9600A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Juego 6 Pinzas Anillos De Retención Industriales Urrea 360d</t>
+          <t>Juego Desarmadores Phillips 6 Pzas Ambar 9600a Urrea</t>
         </is>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>2320</v>
+        <v>505</v>
       </c>
       <c r="F101" t="n">
-        <v>2315</v>
+        <v>430</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3118,26 +3184,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>360A</t>
+          <t>9500b</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Juego De 6 Pinzas Para Anillos De Retención Conv Urrea 360a</t>
+          <t>Juego Extractor Cola Cochino Para Tornillos 5 Pz Urrea 9500b</t>
         </is>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>2910</v>
-      </c>
-      <c r="F102" t="n">
-        <v>2464.83</v>
+        <v>219</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -3145,22 +3213,26 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>5</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>9201B</t>
+        </is>
+      </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cartucho Cerámico Derecho Chico R280443 Urrea</t>
+          <t>Juego Herramienta Eléctrica Urrea 9201b</t>
         </is>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>198</v>
+        <v>950</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3168,28 +3240,22 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>R280443</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Cartucho Cerámico Derecho Chico R280443 Urrea</t>
+          <t>Juego Llaves Válvulas Empotrar Roscables P/regadera 52 Urrea</t>
         </is>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>198</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>720</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3197,26 +3263,28 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>R470078</t>
+          <t>JUP34</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Cartucho 312 Vástago Para Regadera R470078 Urrea</t>
+          <t>Kit 34 Puntas Destornillador Amortiguador Jup34 Urrea</t>
         </is>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>185</v>
-      </c>
-      <c r="F105" t="n">
-        <v>165</v>
+        <v>410</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3224,22 +3292,26 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>JDPU117</t>
+        </is>
+      </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Mezcladora 8´´ De Cocina Manerales Palanca 9333 Urrea</t>
+          <t>Kit Desarmador Destor.reparacion Celular 117pz Jdpu117 Urrea</t>
         </is>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>1580</v>
+        <v>585</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3247,22 +3319,26 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4</v>
-      </c>
-      <c r="B107" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>USL008</t>
+        </is>
+      </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Mezcladora 8´´ De Cocina Manerales Palanca 9333 Urrea</t>
+          <t>Lentes Seguridad Mujer Rosa Mica Transparente Usl008 Urrea</t>
         </is>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1580</v>
+        <v>135</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3270,28 +3346,26 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>12CL</t>
+          <t>LPA10</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Mezcladora De Baño Urrea Baño 12cl Color Plateada Y Acabado Cromado</t>
+          <t>Linterna A Prueba De Agua 100 Lm A Baterías Urrea</t>
         </is>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1240</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>382</v>
+      </c>
+      <c r="F108" t="n">
+        <v>277.77</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3299,22 +3373,26 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>LPA10</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Mezcladora 4´´ Para Lavabo Manerales De Palanca 12cl Urrea</t>
+          <t>Linterna A Prueba De Agua 100 Lm A Baterías Urrea Lpa10</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1240</v>
+        <v>382</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>277.77</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3322,28 +3400,26 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>12CL</t>
+          <t>LPA35</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Mezcladora 4´´ Para Lavabo Manerales De Palanca 12cl Urrea</t>
+          <t>Linterna A Prueba De Agua 350 Lumenes Aaa Baterias Urrea</t>
         </is>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1240</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F110" t="n">
+        <v>555</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3351,22 +3427,26 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>LPA35</t>
+        </is>
+      </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Juego De Llaves De Empotrar Roscables Compactas 52c Urrea</t>
+          <t>Linterna A Prueba De Agua 350 Lumenes Bateria 3a Urrea Lpa35</t>
         </is>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3374,28 +3454,26 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>52C</t>
+          <t>LAPU1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Juego De Llaves De Empotrar Roscables Compactas 52c Urrea</t>
+          <t>Linterna De Alta Potencia Recargable Lapu1 Urrea</t>
         </is>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>550</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F112" t="n">
+        <v>830.46</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3407,22 +3485,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>9991A</t>
+          <t>LAPU3</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cama Para Mecánico Plástica 6 Ruedas Giratorias 9991a Urrea</t>
+          <t>Linterna De Led De Alta Potencia Recargables De 3000lm Urrea Color De La Linterna Negro Color De La Luz Blanco</t>
         </is>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>1450</v>
+        <v>1900</v>
       </c>
       <c r="F113" t="n">
-        <v>1390</v>
+        <v>1710</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3430,26 +3508,26 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>LRU6A</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Charola Magnética Redonda 15 Cm De Diámetro 2302 Urrea</t>
+          <t>Linterna De Led Recargable Con Alarma De 600 Lm Urrea Color De La Luz Blanco</t>
         </is>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>152</v>
+        <v>1200</v>
       </c>
       <c r="F114" t="n">
-        <v>136</v>
+        <v>1178.51</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3457,26 +3535,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>683YZ</t>
+          <t>LPL30</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Monomando Regadera Cromo Empotrable Yaz 683yz Urrea</t>
+          <t>Linterna De Led Tipo Pluma Recargable De 300lm Lpl30 Urrea</t>
         </is>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>4268</v>
-      </c>
-      <c r="F115" t="n">
-        <v>3968.68</v>
+        <v>665</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3484,22 +3564,26 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4</v>
-      </c>
-      <c r="B116" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>LRU6A</t>
+        </is>
+      </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Juego De Letras De Golpe 5 Mm (3/16 ) Urrea 42l5</t>
+          <t>Linterna Led Recargable Usb 600lm Lru6a Alarma Urrea</t>
         </is>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>1089</v>
+        <v>1200</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3507,22 +3591,28 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5</v>
-      </c>
-      <c r="B117" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>LR14</t>
+        </is>
+      </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Linterna De Led Tipo Pluma Recargable De 300lm Lpl30 Urrea</t>
+          <t>Linterna Led Reflectora 1400 Lm Contra Agua Lr14 Urrea</t>
         </is>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>665</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0</v>
+        <v>1850</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -3530,28 +3620,26 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>LPL30</t>
+          <t>LAPU2</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Linterna De Led Tipo Pluma Recargable De 300lm Lpl30 Urrea</t>
+          <t>Linterna Urrea Lapu2 Alta Potencia Recargable 2000lm Pesado Linterna Negro Luz Blanco</t>
         </is>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>665</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1190</v>
+      </c>
+      <c r="F118" t="n">
+        <v>800</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -3563,22 +3651,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CH313</t>
+          <t>LAPU2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Juego 15 Llaves Comb Matraca Métrico Industrial Ch313 Urrea</t>
+          <t>Linternas Lamparas Led De Alta Potencia 2000lm Lapu2 Urrea</t>
         </is>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>4920</v>
+        <v>1190</v>
       </c>
       <c r="F119" t="n">
-        <v>4394.2</v>
+        <v>999</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -3586,26 +3674,26 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CH313</t>
+          <t>LAPU3</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Juego 15 Llaves Combinadas Matraca Métrico Industrial Urrea</t>
+          <t>Linternas Lamparas Led De Alta Potencia 3000 Lm Lapu3 Urrea</t>
         </is>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>4920</v>
+        <v>1900</v>
       </c>
       <c r="F120" t="n">
-        <v>4394.2</v>
+        <v>1710</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3613,26 +3701,26 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>259GHL</t>
+          <t>401SC</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Pinza Electricista Alta Palanca Poncha 9-5/16in 259ghl Urrea</t>
+          <t>Llave Angular Sin Contratuerca 1/2 401sc Urrea</t>
         </is>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>590</v>
+        <v>165</v>
       </c>
       <c r="F121" t="n">
-        <v>540</v>
+        <v>118.57</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3640,26 +3728,26 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>UP886H</t>
+          <t>9433LU</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Matraca Neumática De 1/2´´ Up886h Urrea</t>
+          <t>Llave Monomando Corto Para Lavabo 9433lu Urrea</t>
         </is>
       </c>
       <c r="D122" t="n">
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1785</v>
+        <v>2065</v>
       </c>
       <c r="F122" t="n">
-        <v>1766.05</v>
+        <v>1584</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3667,26 +3755,26 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>J6011</t>
+          <t>9433LU</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Juego 11 Puntas Brístol, Zanco 3/8'' + Caja Metálica Urrea</t>
+          <t>Llave Monomando Corto Para Lavabo Fregadero Casa Baño Urrea</t>
         </is>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>635</v>
+        <v>2065</v>
       </c>
       <c r="F123" t="n">
-        <v>568.01</v>
+        <v>1584</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -3694,26 +3782,26 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>J6011</t>
+          <t>23640</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Juego De Puntas Bristol Hexágono De 3/8´´ 11 Pz J6011 Urrea</t>
+          <t>Llave Para Tapa De Tambo 23640 Urrea</t>
         </is>
       </c>
       <c r="D124" t="n">
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>635</v>
+        <v>500</v>
       </c>
       <c r="F124" t="n">
-        <v>568.01</v>
+        <v>440.31</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -3721,26 +3809,26 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>86N.19</t>
+          <t>5449B</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Valvula De Retencion Columpio 3/4´´ 86n.19 Urrea</t>
+          <t>Matraca 1/2 Pulgada Reversible 48 Dientes Black 5449b Urrea</t>
         </is>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>295</v>
+        <v>710</v>
       </c>
       <c r="F125" t="n">
-        <v>230</v>
+        <v>596.88</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -3748,28 +3836,26 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>4765</t>
+          <t>UP886H</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Extensión Flexible 1/4 X 6 4765 Urrea</t>
+          <t>Matraca Neumática De 1/2´´ Up886h Urrea</t>
         </is>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>128</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1785</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1766.05</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -3777,23 +3863,23 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>UPWL4</t>
+          <t>5452FL</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Filtro Regulador Y Lubricador De Aire 1/2´´ Npt Upwl4 Urrea</t>
+          <t>Matraca Reversible Multiposiciones Cuadro 1/2 5452fl Urrea</t>
         </is>
       </c>
       <c r="D127" t="n">
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>2025</v>
+        <v>1455</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3806,26 +3892,28 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TNL</t>
+          <t>12CL</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tripie Para Nivel Láser 1.3 M Tnl Urrea</t>
+          <t>Mezcladora 4´´ Para Lavabo Manerales De Palanca 12cl Urrea</t>
         </is>
       </c>
       <c r="D128" t="n">
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>820</v>
-      </c>
-      <c r="F128" t="n">
-        <v>725</v>
+        <v>1240</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -3833,26 +3921,22 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>6</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Li812</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Pistola De Impacto 1/2 Urrea Li812 Uso Rudo 1100w Uso Pesado</t>
+          <t>Mezcladora 8´´ De Cocina Manerales Palanca 9333 Urrea</t>
         </is>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3600</v>
+        <v>1580</v>
       </c>
       <c r="F129" t="n">
-        <v>3140</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -3860,26 +3944,26 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Li812</t>
+          <t>11CL.2</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Pistola De Impacto Eléctrica 1/2 1100w 120v Li812 Urrea</t>
+          <t>Mezcladora De 4  Para Lavabo Negro Mate 11cl.2 Urrea</t>
         </is>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>3600</v>
+        <v>1680</v>
       </c>
       <c r="F130" t="n">
-        <v>3180</v>
+        <v>1669</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -3887,22 +3971,28 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2</v>
-      </c>
-      <c r="B131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>12CL</t>
+        </is>
+      </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Pistola De Impacto Neumática 1/2, 5  Upc731 Urrea</t>
+          <t>Mezcladora De Baño Urrea Baño 12cl Color Plateada Y Acabado Cromado</t>
         </is>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>5600</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0</v>
+        <v>1240</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -3910,26 +4000,26 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>UPC731</t>
+          <t>46QC</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Pistola De Impacto Neumática 1/2, 5  Upc731 Urrea</t>
+          <t>Mezcladora P/lavabo 4 Queen Cubierta, Manera Urrea 46qc Acabado Cromado Color Plateado</t>
         </is>
       </c>
       <c r="D132" t="n">
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>5600</v>
+        <v>1180</v>
       </c>
       <c r="F132" t="n">
-        <v>4956</v>
+        <v>1059</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -3937,19 +4027,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Extensión De 1/4x6 4761 Urrea</t>
+          <t>Mezcladora Para Lavabo 4 Pulgadas 68yz Urrea</t>
         </is>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>145</v>
+        <v>2695</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -3960,26 +4050,28 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>4990-7L</t>
+          <t>67PN</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Juego 7 Dados Largos Hexagonal En Pulgadas 3/8 4990-7l Urrea</t>
+          <t>Mezcladora Para Lavabo 67pn Urrea</t>
         </is>
       </c>
       <c r="D134" t="n">
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>620</v>
-      </c>
-      <c r="F134" t="n">
-        <v>552.26</v>
+        <v>2019</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -3987,26 +4079,26 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>11cl</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Aceite Mineral Para Compresor 946ml Acm Urrea</t>
+          <t>Mezcladora Para Lavabo De 4 Cromo 11cl Urrea</t>
         </is>
       </c>
       <c r="D135" t="n">
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>221</v>
+        <v>1560</v>
       </c>
       <c r="F135" t="n">
-        <v>201.24</v>
+        <v>1386.34</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -4014,26 +4106,26 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>50900</t>
+          <t>46QC</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Juego De Sacabocados 7 Piezas Para Láminas 50900 Urrea</t>
+          <t>Mezcladora Para Lavabo De 4 Pulgadas 46qc Urrea</t>
         </is>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>2245</v>
+        <v>1180</v>
       </c>
       <c r="F136" t="n">
-        <v>2110.45</v>
+        <v>1059</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -4041,22 +4133,28 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2</v>
-      </c>
-      <c r="B137" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>67PN</t>
+        </is>
+      </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Regadera De Cebolla Brazo Y Chapetón Negromate 3031b.2 Urrea</t>
+          <t>Mezcladora Para Lavabo Urrea Tj 67pn - Cromo</t>
         </is>
       </c>
       <c r="D137" t="n">
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>575</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0</v>
+        <v>2019</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -4064,28 +4162,26 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>3031B.2</t>
+          <t>9433PR</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Regadera De Cebolla Brazo Y Chapetón Negromate 3031b.2 Urrea</t>
+          <t>Monomando Corto Redondo Moderno Acabado Cromo 9433pr Urrea</t>
         </is>
       </c>
       <c r="D138" t="n">
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>575</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2961</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2451.15</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -4097,22 +4193,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CCRPINOX.37</t>
+          <t>9480.2</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Coladera Cuadrada Rejilla Perforada Negra Ccrpinox.37 Urrea</t>
+          <t>Monomando Para Cocina 9480.2 Color Negro Urrea</t>
         </is>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>1075</v>
+        <v>2400</v>
       </c>
       <c r="F139" t="n">
-        <v>1029</v>
+        <v>2309</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -4120,22 +4216,28 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
-      </c>
-      <c r="B140" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>9444INOX</t>
+        </is>
+      </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Coladera Cuadrada Rejilla Redonda Negra Ccrrinox.37 Urrea</t>
+          <t>Monomando Para Cocina Con Cubierta Inox® Urrea 9444inox Color Acero Inoxidable</t>
         </is>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>760</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0</v>
+        <v>2939</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -4143,19 +4245,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Mezcladora De 4  Para Lavabo Negro Mate 11cl.2 Urrea</t>
+          <t>Monomando Para Cocina Nariz Retráctil 2 Funciones 9474 Urrea</t>
         </is>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1680</v>
+        <v>2700</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4166,26 +4268,26 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>11CL.2</t>
+          <t>9480</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Mezcladora De 4  Para Lavabo Negro Mate 11cl.2 Urrea</t>
+          <t>Monomando Para Fregadero 9480 Urrea</t>
         </is>
       </c>
       <c r="D142" t="n">
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>1680</v>
+        <v>2258</v>
       </c>
       <c r="F142" t="n">
-        <v>1669</v>
+        <v>2145.1</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4193,22 +4295,28 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>8</v>
-      </c>
-      <c r="B143" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>610YZ</t>
+        </is>
+      </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Monomando Para Cocina Nariz Retráctil 2 Funciones 9474 Urrea</t>
+          <t>Monomando Para Lavabo 610yz Urrea</t>
         </is>
       </c>
       <c r="D143" t="n">
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>2700</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0</v>
+        <v>2910</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4216,22 +4324,26 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>8</v>
-      </c>
-      <c r="B144" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>9433PR</t>
+        </is>
+      </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Monomando Para Cocina Nariz Retráctil 2 Funciones 9474 Urrea</t>
+          <t>Monomando Para Lavabo 9433pr Urrea</t>
         </is>
       </c>
       <c r="D144" t="n">
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>2700</v>
+        <v>2961</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>2451.15</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4239,28 +4351,26 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>795G</t>
+          <t>683YZ</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Juego De 3 Llaves Ajustable Rubber Grip 795g Urrea</t>
+          <t>Monomando Regadera Cromo Empotrable Yaz 683yz Urrea</t>
         </is>
       </c>
       <c r="D145" t="n">
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>1325</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4268</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3968.68</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -4268,26 +4378,26 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>681YZ</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Juego De 3 Llaves Ajustables Cromadas 795 Urrea</t>
+          <t>Monomando Regadera/tina Cromo Yaz 681yz Urrea</t>
         </is>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>1210</v>
+        <v>2550</v>
       </c>
       <c r="F146" t="n">
-        <v>1147.6</v>
+        <v>2525</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4295,28 +4405,26 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>54214</t>
+          <t>681YZ</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Juego 15 Dados Métricos Cuadro De 1/2 12 Puntas 54214 Urrea</t>
+          <t>Monomando Regadera/tina Cromo Yaz Urrea 681yz</t>
         </is>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>860</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2550</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2525</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -4324,26 +4432,26 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>795S</t>
+          <t>NL2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Juego De 3 Llaves Ajustables Fosfatizadas 795s Urrea</t>
+          <t>Nivel Láser De Líneas Urrea Nl2 10m</t>
         </is>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>1185</v>
+        <v>1664</v>
       </c>
       <c r="F148" t="n">
-        <v>1175</v>
+        <v>1556.25</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -4351,26 +4459,26 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>NL2E</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Pinza Para Anillos De Retención Convertibles 45° 370 Urrea</t>
+          <t>Nivel Láser De Líneas Urrea Nl2e 7m</t>
         </is>
       </c>
       <c r="D149" t="n">
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>425</v>
+        <v>1138</v>
       </c>
       <c r="F149" t="n">
-        <v>394</v>
+        <v>887</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4378,28 +4486,26 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>52111</t>
+          <t>NL2</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Juego 10 Dados Largos Pulgadas Cuadro De 3/8 52111 Urrea</t>
+          <t>Nivel Láser Semiautomático 2 Líneas Urrea</t>
         </is>
       </c>
       <c r="D150" t="n">
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>670</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1664</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1556.25</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4407,28 +4513,26 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>52216</t>
+          <t>UNT12</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Juego 12 Dados Métricos Cuadro De 3/8 C12 Puntas 52216 Urrea</t>
+          <t>Nivel Tipo Torpedo 9 Pulgadas 3 Burbujas Unt12 Urrea</t>
         </is>
       </c>
       <c r="D151" t="n">
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>508</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>440</v>
+      </c>
+      <c r="F151" t="n">
+        <v>383.19</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -4440,24 +4544,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>52212</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Juego 12 Dados Métricos Cuadro De 3/8 C6 Puntas 52212 Urrea</t>
+          <t>Opresor De Anillos 3-5 Acanadado 2318 Urrea</t>
         </is>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>508</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>489</v>
+      </c>
+      <c r="F152" t="n">
+        <v>434</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4465,22 +4567,26 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2</v>
-      </c>
-      <c r="B153" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>212G</t>
+        </is>
+      </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Pistola Impacto Neumática 1/2puLG 1000 Ft-lb Upx731 Urrea</t>
+          <t>Pinza Corte Al Ras Para Plástico 6 212g Urrea</t>
         </is>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>5300</v>
+        <v>468</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4488,26 +4594,26 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>UPX731</t>
+          <t>259GHL</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Pistola Impacto Neumática 1/2puLG 1000 Ft-lb Upx731 Urrea</t>
+          <t>Pinza Electricista Alta Palanca Poncha 9-5/16in 259ghl Urrea</t>
         </is>
       </c>
       <c r="D154" t="n">
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>5300</v>
+        <v>590</v>
       </c>
       <c r="F154" t="n">
-        <v>3815</v>
+        <v>540</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4515,26 +4621,26 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>9600A</t>
+          <t>209GCA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Juego Desarmadores Phillips 6 Pzas Ambar 9600a Urrea</t>
+          <t>Pinza Electricista Corte Diagonal Compuesta 7 209gca Urrea</t>
         </is>
       </c>
       <c r="D155" t="n">
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="F155" t="n">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -4542,26 +4648,26 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>USL008</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Lentes Seguridad Mujer Rosa Mica Transparente Usl008 Urrea</t>
+          <t>Pinza Para Abrazadera Junta Homocinética 2357 Urrea</t>
         </is>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="F156" t="n">
-        <v>130</v>
+        <v>440.31</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -4573,22 +4679,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>USH02B</t>
+          <t>370</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Casco De Seguridad C/ajuste De Intervalos Azul Ush02b Urrea</t>
+          <t>Pinza Para Anillos De Retención Convertibles 45° 370 Urrea</t>
         </is>
       </c>
       <c r="D157" t="n">
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>145</v>
+        <v>425</v>
       </c>
       <c r="F157" t="n">
-        <v>128.29</v>
+        <v>394</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4596,26 +4702,26 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>5201CD</t>
+          <t>258MP</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Juego De Dados Y Accesorios Combinados 47 Pzas 5201cd Urrea</t>
+          <t>Pinza Para Electricista Univ 8 Multi Propósitos 258mp Urrea</t>
         </is>
       </c>
       <c r="D158" t="n">
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>1480</v>
+        <v>538</v>
       </c>
       <c r="F158" t="n">
-        <v>938.6</v>
+        <v>478.8</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -4623,26 +4729,26 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>JDT25</t>
+          <t>310</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Juego De Destornilladores Trimaterial 25pz Jdt25 Urrea</t>
+          <t>Pinza Pelacables Para Fibra Óptica 310 Urrea</t>
         </is>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1020</v>
+        <v>621</v>
       </c>
       <c r="F159" t="n">
-        <v>891</v>
+        <v>552.75</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -4650,26 +4756,26 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>JCD01</t>
+          <t>Li812</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Estuche Con Matraca Reversible Y Dados 63 Piezas Jcd01 Urrea</t>
+          <t>Pistola De Impacto 1/2 Urrea Li812 Uso Rudo 1100w Uso Pesado</t>
         </is>
       </c>
       <c r="D160" t="n">
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>1585</v>
+        <v>3600</v>
       </c>
       <c r="F160" t="n">
-        <v>1188.75</v>
+        <v>3140</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -4677,22 +4783,26 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
-      </c>
-      <c r="B161" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Li812</t>
+        </is>
+      </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Compresora Industrial Urrea 2hp 25 Litros Con Manometro Fase Eléctrica Monofásica Frecuencia 60 Hz</t>
+          <t>Pistola De Impacto Eléctrica 1/2 1100w 120v Li812 Urrea</t>
         </is>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>7340</v>
+        <v>3600</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -4700,22 +4810,26 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0</v>
-      </c>
-      <c r="B162" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>UPC731</t>
+        </is>
+      </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Compresora Uso Continuo 2.5hp 50 Litros Con Manometro Urrea Color Negro Frecuencia 60 Hz</t>
+          <t>Pistola De Impacto Neumática 1/2, 5  Upc731 Urrea</t>
         </is>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>9590</v>
+        <v>5600</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>4956</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4723,22 +4837,26 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>7</v>
-      </c>
-      <c r="B163" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>UPX731</t>
+        </is>
+      </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Linterna Led Reflectora 1400 Lm Contra Agua Lr14 Urrea</t>
+          <t>Pistola Impacto Neumática 1/2puLG 1000 Ft-lb Upx731 Urrea</t>
         </is>
       </c>
       <c r="D163" t="n">
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>1850</v>
+        <v>5300</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>3815</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -4746,28 +4864,26 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>LR14</t>
+          <t>9817</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Linterna Led Reflectora 1400 Lm Contra Agua Lr14 Urrea</t>
+          <t>Portarrollo Inox 9817 Marca Urrea</t>
         </is>
       </c>
       <c r="D164" t="n">
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>1850</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1160</v>
+      </c>
+      <c r="F164" t="n">
+        <v>863</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -4775,22 +4891,26 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>3</v>
-      </c>
-      <c r="B165" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>PVU01</t>
+        </is>
+      </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Linternas Lamparas Led De Alta Potencia 2000lm Lapu2 Urrea</t>
+          <t>Probador De Voltaje Sin Contacto 24v A 1000v Pvu01 Urrea</t>
         </is>
       </c>
       <c r="D165" t="n">
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>1190</v>
+        <v>557</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -4798,26 +4918,26 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>LAPU2</t>
+          <t>USFS1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Linternas Lamparas Led De Alta Potencia 2000lm Lapu2 Urrea</t>
+          <t>Protector Facial Anatómico Usfs1 Urrea</t>
         </is>
       </c>
       <c r="D166" t="n">
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>1190</v>
+        <v>550</v>
       </c>
       <c r="F166" t="n">
-        <v>999</v>
+        <v>443.41</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -4825,26 +4945,26 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>LAPU3</t>
+          <t>3031FB.2</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Linterna De Led De Alta Potencia Recargables De 3000lm Urrea Color De La Linterna Negro Color De La Luz Blanco</t>
+          <t>Regadera 3 Funciones Brazo Y Chapetón Negro 3031fb.2 Urrea</t>
         </is>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>1900</v>
+        <v>695</v>
       </c>
       <c r="F167" t="n">
-        <v>1710</v>
+        <v>679</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -4852,26 +4972,22 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>LAPU2</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Linterna Urrea Lapu2 Alta Potencia Recargable 2000lm Pesado Linterna Negro Luz Blanco</t>
+          <t>Regadera 3001b Urrea</t>
         </is>
       </c>
       <c r="D168" t="n">
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>1190</v>
+        <v>520</v>
       </c>
       <c r="F168" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -4879,22 +4995,26 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2</v>
-      </c>
-      <c r="B169" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>3036B</t>
+        </is>
+      </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linternas Lamparas Led De Alta Potencia 3000 Lm Lapu3 Urrea </t>
+          <t>Regadera 5 Funciones C/ Brazo Y Chapetón Urrea 3036b Cromo Acabado Cromado Color Plateado</t>
         </is>
       </c>
       <c r="D169" t="n">
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>1900</v>
+        <v>610</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>541.45</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -4902,26 +5022,26 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>LAPU3</t>
+          <t>3036B</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Linternas Lamparas Led De Alta Potencia 3000 Lm Lapu3 Urrea </t>
+          <t>Regadera Abs 5 Funciones C/ Brazo Y Chapetón 3036b Urrea</t>
         </is>
       </c>
       <c r="D170" t="n">
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>1900</v>
+        <v>610</v>
       </c>
       <c r="F170" t="n">
-        <v>1710</v>
+        <v>541.45</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -4929,22 +5049,28 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>3</v>
-      </c>
-      <c r="B171" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>298B</t>
+        </is>
+      </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Regadera Forma De Teléfono 2014 Urrea</t>
+          <t>Regadera Bych Olimpica Urrea 298b Cromo Acabado Cromado</t>
         </is>
       </c>
       <c r="D171" t="n">
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1950</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0</v>
+        <v>1043</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -4952,28 +5078,26 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>295B</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Regadera Forma De Teléfono 2014 Urrea</t>
+          <t>Regadera Con Brazo Y Chapeton (cromo) Urrea Tpva 295b Acabado Cromado Color Plateado</t>
         </is>
       </c>
       <c r="D172" t="n">
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>1950</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>798</v>
+      </c>
+      <c r="F172" t="n">
+        <v>792</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -4981,26 +5105,26 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>9600D</t>
+          <t>295B</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Juego Desarmadores Combinados (8 Pzas),  Urrea 9600d</t>
+          <t>Regadera Con Brazo Y Chapetón 295b Urrea</t>
         </is>
       </c>
       <c r="D173" t="n">
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>550</v>
+        <v>798</v>
       </c>
       <c r="F173" t="n">
-        <v>494.25</v>
+        <v>792</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -5008,26 +5132,28 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>JBUD01</t>
+          <t>298B</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Juego De 5 Destornilladores Ámbar Combinados Urrea Jbud01</t>
+          <t>Regadera Con Brazo Y Chapetón 298b Urrea Acabado Cromo</t>
         </is>
       </c>
       <c r="D174" t="n">
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>270</v>
-      </c>
-      <c r="F174" t="n">
-        <v>266</v>
+        <v>1043</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -5035,22 +5161,26 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
-      </c>
-      <c r="B175" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>3002B</t>
+        </is>
+      </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Compresor De Aire Eléctrico Portátil Comp850 Urrea</t>
+          <t>Regadera Con Brazo Y Chapetón 8.6 Cm Diámetro 3002b Urrea</t>
         </is>
       </c>
       <c r="D175" t="n">
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>9590</v>
+        <v>792</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -5058,22 +5188,26 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0</v>
-      </c>
-      <c r="B176" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>3002B</t>
+        </is>
+      </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Compresor De Aire Eléctrico Portátil Comp850 Urrea</t>
+          <t>Regadera Con Brazo Y Chapetón Urrea 3002b Acabado Cromado Color Plateado</t>
         </is>
       </c>
       <c r="D176" t="n">
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>9590</v>
+        <v>792</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -5081,19 +5215,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Extensión Impacto 1/2 X5 7181p Urrea</t>
+          <t>Regadera Cuadrada Con Brazo Y Chapetón Marca Urrea Mod 2261b Acabado Cromado Color Plateado</t>
         </is>
       </c>
       <c r="D177" t="n">
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>180</v>
+        <v>2059</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -5104,26 +5238,28 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>10607B</t>
+          <t>3031B.2</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Extensión Impacto 1 X 7  Con Balín 10607b Urrea</t>
+          <t>Regadera De Cebolla Brazo Y Chapetón Negromate 3031b.2 Urrea</t>
         </is>
       </c>
       <c r="D178" t="n">
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>1485</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1325.82</v>
+        <v>575</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -5131,26 +5267,28 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>USLG1</t>
+          <t>3007B</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Googles Ventilación Por Canal Uslg1 Urrea</t>
+          <t>Regadera De Cebolla Sencilla C/brazo Y Chapetón 3007b Urrea</t>
         </is>
       </c>
       <c r="D179" t="n">
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>215</v>
-      </c>
-      <c r="F179" t="n">
-        <v>170</v>
+        <v>450</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -5158,26 +5296,28 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>USGDM</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Guante Supraneema/nitrilo Mediana Usgdm Urrea</t>
+          <t>Regadera Forma De Teléfono 2014 Urrea</t>
         </is>
       </c>
       <c r="D180" t="n">
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>208</v>
-      </c>
-      <c r="F180" t="n">
-        <v>150.6</v>
+        <v>1950</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -5185,22 +5325,26 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>6</v>
-      </c>
-      <c r="B181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2260B</t>
+        </is>
+      </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Cinturón Para Liniero Talla 40 Usc01m Urrea</t>
+          <t>Regadera Redonda Con Brazo Y Chapetón Cromo 2260b Urrea</t>
         </is>
       </c>
       <c r="D181" t="n">
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>1035</v>
+        <v>1935</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>1639</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -5208,26 +5352,28 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>USC01M</t>
+          <t>3007B</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Cinturón Para Liniero Talla 40 Usc01m Urrea</t>
+          <t>Regadera Redonda Cromada 8.5 Cm Con Brazo Baño Moderna Urrea Acabado Cromado Color Plateado</t>
         </is>
       </c>
       <c r="D182" t="n">
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1035</v>
-      </c>
-      <c r="F182" t="n">
-        <v>876.3</v>
+        <v>450</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5235,26 +5381,26 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>USGGG</t>
+          <t>2260B.9</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Guante Mecánico Talla Grande Usggg Urrea</t>
+          <t>Regadera Urrea 2260b.9 20cm Con Brazo Y Chapetón</t>
         </is>
       </c>
       <c r="D183" t="n">
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>398</v>
+        <v>2036</v>
       </c>
       <c r="F183" t="n">
-        <v>272.19</v>
+        <v>1890.4</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -5262,22 +5408,26 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0</v>
-      </c>
-      <c r="B184" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2260B.9</t>
+        </is>
+      </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Compresor 2hp 25 Litros Comp825 Urrea</t>
+          <t>Regadera Urrea 2260b.9 20cm Con Brazo Y Chapetón Neo Acabado Acero Inoxidable Color Acero Inoxidable</t>
         </is>
       </c>
       <c r="D184" t="n">
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>7340</v>
+        <v>2036</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1890.4</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -5285,22 +5435,26 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
-      </c>
-      <c r="B185" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>9710</t>
+        </is>
+      </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Compresor 2hp 25 Litros Comp825 Urrea</t>
+          <t>Repisa Portajabón Esquinera Inoxidable 9710 Urrea</t>
         </is>
       </c>
       <c r="D185" t="n">
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>7340</v>
+        <v>1120</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -5308,22 +5462,26 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
-      </c>
-      <c r="B186" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>RM712D</t>
+        </is>
+      </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Compresor De Aire Eléctrico Comp824l Monofásico 24l Urrea</t>
+          <t>Rotomartillo 1/2  1050w 120v Uso Pesado Rm712d Urrea</t>
         </is>
       </c>
       <c r="D186" t="n">
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>10200</v>
+        <v>2290</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>1694.7</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5331,26 +5489,26 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>COMP824L</t>
+          <t>SOLI1020-220</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Compresor De Aire Eléctrico Comp824l Monofásico 24l Urrea</t>
+          <t>Soldadora Inverter De 220 V Frecuencia De 60 Hz Urrea Color Negro</t>
         </is>
       </c>
       <c r="D187" t="n">
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>10200</v>
+        <v>7145</v>
       </c>
       <c r="F187" t="n">
-        <v>8827.76</v>
+        <v>5861.32</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -5358,26 +5516,26 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>COMP824L</t>
+          <t>SOLI1020-220</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Compresor De Aire Eléctrico  Urrea Comp824l 24l 1.5hp 127v</t>
+          <t>Soldadora Inverter De 220 V Soli1020-220 Urrea</t>
         </is>
       </c>
       <c r="D188" t="n">
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>10200</v>
+        <v>7145</v>
       </c>
       <c r="F188" t="n">
-        <v>8827.76</v>
+        <v>5861.32</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -5385,22 +5543,28 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>6</v>
-      </c>
-      <c r="B189" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>322G</t>
+        </is>
+      </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Extensión De 1/4x10 4762 Urrea</t>
+          <t>Tijera Para Hojalatero 12 3/4 322g Urrea</t>
         </is>
       </c>
       <c r="D189" t="n">
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>144</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
+        <v>410</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G189" t="n">
         <v>0</v>
@@ -5412,24 +5576,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>526006</t>
+          <t>9805</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Extensión De 3/8x6 Adaptador Para Dado Cuadro 526006 Urrea</t>
+          <t>Toallero De Barra Para Baño 9805 Urrea</t>
         </is>
       </c>
       <c r="D190" t="n">
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>129</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1200</v>
+      </c>
+      <c r="F190" t="n">
+        <v>931.76</v>
       </c>
       <c r="G190" t="n">
         <v>0</v>
@@ -5437,23 +5599,23 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>6007FL</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Extensión Impacto 1/4x6 6965 Urrea</t>
+          <t>Torquimetro Escala Cuadro De 3/8 , 5-75 Ft-lb 6007fl Urrea</t>
         </is>
       </c>
       <c r="D191" t="n">
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>179</v>
+        <v>3485</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -5466,26 +5628,26 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>681YZ</t>
+          <t>TNL</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Monomando Regadera/tina Cromo Yaz Urrea 681yz</t>
+          <t>Tripie Para Nivel Láser 1.3 M Tnl Urrea</t>
         </is>
       </c>
       <c r="D192" t="n">
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>2550</v>
+        <v>820</v>
       </c>
       <c r="F192" t="n">
-        <v>2525</v>
+        <v>725</v>
       </c>
       <c r="G192" t="n">
         <v>0</v>
@@ -5493,26 +5655,26 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>LPA35</t>
+          <t>100CL</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Linterna A Prueba De Agua 350 Lumenes Aaa Baterias Urrea</t>
+          <t>Urrea Lia 100cl Acabado Cromado</t>
         </is>
       </c>
       <c r="D193" t="n">
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>600</v>
+        <v>1420</v>
       </c>
       <c r="F193" t="n">
-        <v>555</v>
+        <v>1211.36</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -5520,22 +5682,26 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3</v>
-      </c>
-      <c r="B194" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>86N.19</t>
+        </is>
+      </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Regadera Cuadrada Con Brazo Y Chapetón Marca Urrea Mod 2261b Acabado Cromado Color Plateado</t>
+          <t>Valvula De Retencion Columpio 3/4´´ 86n.19 Urrea</t>
         </is>
       </c>
       <c r="D194" t="n">
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>2059</v>
+        <v>295</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="G194" t="n">
         <v>0</v>
@@ -5543,26 +5709,22 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Juego De Manerales Grandes Urrea Kg Zamac Acabado Cromo Acabado Cromado</t>
+          <t>Valvula Retencion Columpio 1/2 Wog 200lb/pul Vrc01.13 Urrea</t>
         </is>
       </c>
       <c r="D195" t="n">
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>494</v>
+        <v>355</v>
       </c>
       <c r="F195" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
         <v>0</v>
@@ -5570,26 +5732,28 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>9433LU</t>
+          <t>VRC01.19</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Llave Monomando Corto Para Lavabo Fregadero Casa Baño Urrea</t>
+          <t>Valvula Retencion Columpio 3/4 Wog 200lb/pul Vrc01.19 Urrea</t>
         </is>
       </c>
       <c r="D196" t="n">
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>2065</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1584</v>
+        <v>455</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G196" t="n">
         <v>0</v>
@@ -5597,26 +5761,28 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>LPA10</t>
+          <t>VCR01.19</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Linterna A Prueba De Agua 100 Lm A Baterías Urrea</t>
+          <t>Válvula De Compuerta Roscable 3/4'' Vcr01.19 Urrea</t>
         </is>
       </c>
       <c r="D197" t="n">
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>382</v>
-      </c>
-      <c r="F197" t="n">
-        <v>277.77</v>
+        <v>190</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -5624,1653 +5790,24 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>4</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>CIX</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Juego De Manerales Urrea Grandes Inox Cix Mango En Cruz Acabado Mate Color Acero Inoxidable</t>
+          <t>Válvula De Retención De Columpio 1¨ Vrc01.25 Urrea</t>
         </is>
       </c>
       <c r="D198" t="n">
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>2650</v>
+        <v>790</v>
       </c>
       <c r="F198" t="n">
-        <v>2175</v>
+        <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>3</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>9433PR</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Monomando Corto Redondo Moderno Acabado Cromo 9433pr Urrea</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2961</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2451.15</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>5</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>67PN</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Mezcladora Para Lavabo Urrea Tj 67pn - Cromo</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>3</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>UP711K</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Juego De Martillo Neumático Con 5 Cinceles Up711k Urrea</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" t="n">
-        <v>2906</v>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>3</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>UP874</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Cortadora Neumática De Disco 3 20000rpm Up874 Urrea</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1465</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1120</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>3</v>
-      </c>
-      <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Soldadora Inverter De 220 V Soli1020-220 Urrea</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" t="n">
-        <v>7145</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>3</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>SOLI1020-220</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Soldadora Inverter De 220 V Soli1020-220 Urrea</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>0</v>
-      </c>
-      <c r="E204" t="n">
-        <v>7145</v>
-      </c>
-      <c r="F204" t="n">
-        <v>5861.32</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>5</v>
-      </c>
-      <c r="B205" t="inlineStr"/>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Rotomartillo 1/2  1050w 120v Uso Pesado Rm712d Urrea</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>0</v>
-      </c>
-      <c r="E205" t="n">
-        <v>2290</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>5</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>RM712D</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Rotomartillo 1/2  1050w 120v Uso Pesado Rm712d Urrea</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" t="n">
-        <v>2290</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1694.7</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>3</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>SOLI1020-220</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Soldadora Inverter De 220 V Frecuencia De 60 Hz Urrea Color Negro</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="n">
-        <v>7145</v>
-      </c>
-      <c r="F207" t="n">
-        <v>5861.32</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>9</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>322G</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Tijera Para Hojalatero 12 3/4 322g Urrea</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>0</v>
-      </c>
-      <c r="E208" t="n">
-        <v>410</v>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>7</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>JUP34</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Kit 34 Puntas Destornillador Amortiguador Jup34 Urrea</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>0</v>
-      </c>
-      <c r="E209" t="n">
-        <v>410</v>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>7</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>JUP54</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Juego 54 Puntas Magneticas P/taladro Dest. Jup54 Urrea</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="n">
-        <v>605</v>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>5</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>6007FL</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Torquimetro Escala Cuadro De 3/8 , 5-75 Ft-lb 6007fl Urrea</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>0</v>
-      </c>
-      <c r="E211" t="n">
-        <v>3485</v>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>6</v>
-      </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Regadera 3001b Urrea</t>
-        </is>
-      </c>
-      <c r="D212" t="n">
-        <v>0</v>
-      </c>
-      <c r="E212" t="n">
-        <v>520</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>6</v>
-      </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Regadera 3001b Urrea</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>0</v>
-      </c>
-      <c r="E213" t="n">
-        <v>520</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>5</v>
-      </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Monomando Para Cocina 9480.2 Color Negro Urrea</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" t="n">
-        <v>2400</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>5</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>9480.2</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Monomando Para Cocina 9480.2 Color Negro Urrea</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>0</v>
-      </c>
-      <c r="E215" t="n">
-        <v>2400</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2309</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>3</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>EO</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Juego De Manerales Grandes Neo Urrea - Cromo Accesorios Baño</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>0</v>
-      </c>
-      <c r="E216" t="n">
-        <v>1159</v>
-      </c>
-      <c r="F216" t="n">
-        <v>993.28</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>3</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>9444INOX</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Monomando Para Cocina Con Cubierta Inox® Urrea 9444inox Color Acero Inoxidable</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>0</v>
-      </c>
-      <c r="E217" t="n">
-        <v>2939</v>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>3</v>
-      </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Grifo De Cocina  Monomando Urrea 9444inox  Acero Inoxidable</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>0</v>
-      </c>
-      <c r="E218" t="n">
-        <v>2939</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>3</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>9444INOX</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Grifo De Cocina  Monomando Urrea 9444inox  Acero Inoxidable</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>0</v>
-      </c>
-      <c r="E219" t="n">
-        <v>2939</v>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>3</v>
-      </c>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Juego De Manerales Grandes Eo Urrea</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" t="n">
-        <v>1159</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>3</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>EO</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Juego De Manerales Grandes Eo Urrea</t>
-        </is>
-      </c>
-      <c r="D221" t="n">
-        <v>0</v>
-      </c>
-      <c r="E221" t="n">
-        <v>1159</v>
-      </c>
-      <c r="F221" t="n">
-        <v>993.28</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>7</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>46QC</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Mezcladora P/lavabo 4 Queen Cubierta, Manera Urrea 46qc Acabado Cromado Color Plateado</t>
-        </is>
-      </c>
-      <c r="D222" t="n">
-        <v>0</v>
-      </c>
-      <c r="E222" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1059</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>11</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>100CL</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Urrea Lia 100cl Acabado Cromado</t>
-        </is>
-      </c>
-      <c r="D223" t="n">
-        <v>0</v>
-      </c>
-      <c r="E223" t="n">
-        <v>1420</v>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G223" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>5</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>9805</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Toallero De Barra Para Baño 9805 Urrea</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>0</v>
-      </c>
-      <c r="E224" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F224" t="n">
-        <v>931.76</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>2</v>
-      </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Mezcladora Para Lavabo De 4 Cromo 11cl Urrea</t>
-        </is>
-      </c>
-      <c r="D225" t="n">
-        <v>0</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1560</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>2</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>11cl</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Mezcladora Para Lavabo De 4 Cromo 11cl Urrea</t>
-        </is>
-      </c>
-      <c r="D226" t="n">
-        <v>0</v>
-      </c>
-      <c r="E226" t="n">
-        <v>1560</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1386.34</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>5</v>
-      </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Mezcladora Para Lavabo 67pn Urrea</t>
-        </is>
-      </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>5</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>67PN</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Mezcladora Para Lavabo 67pn Urrea</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>0</v>
-      </c>
-      <c r="E228" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G228" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>4</v>
-      </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Monomando Para Fregadero 9480 Urrea</t>
-        </is>
-      </c>
-      <c r="D229" t="n">
-        <v>0</v>
-      </c>
-      <c r="E229" t="n">
-        <v>2258</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>4</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>9480</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Monomando Para Fregadero 9480 Urrea</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>0</v>
-      </c>
-      <c r="E230" t="n">
-        <v>2258</v>
-      </c>
-      <c r="F230" t="n">
-        <v>2145.1</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>2</v>
-      </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Juego De Manerales Queen Grande Sin Chapetón Qgs Urrea</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>0</v>
-      </c>
-      <c r="E231" t="n">
-        <v>379</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>2</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>QGS</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Juego De Manerales Queen Grande Sin Chapetón Qgs Urrea</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>0</v>
-      </c>
-      <c r="E232" t="n">
-        <v>379</v>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>5</v>
-      </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Juego De Manerales Qg Cromo Zamak Urrea</t>
-        </is>
-      </c>
-      <c r="D233" t="n">
-        <v>0</v>
-      </c>
-      <c r="E233" t="n">
-        <v>530</v>
-      </c>
-      <c r="F233" t="n">
-        <v>0</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>5</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>QG</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Juego De Manerales Qg Cromo Zamak Urrea</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>0</v>
-      </c>
-      <c r="E234" t="n">
-        <v>530</v>
-      </c>
-      <c r="F234" t="n">
-        <v>349</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>2</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>508YZ</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Jabonera De Empotrar Cromo 508yz Urrea</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>0</v>
-      </c>
-      <c r="E235" t="n">
-        <v>830</v>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>2</v>
-      </c>
-      <c r="B236" t="inlineStr"/>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Juego De Manerales Grandes Kg Urrea</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>0</v>
-      </c>
-      <c r="E236" t="n">
-        <v>494</v>
-      </c>
-      <c r="F236" t="n">
-        <v>0</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>2</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Juego De Manerales Grandes Kg Urrea</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>0</v>
-      </c>
-      <c r="E237" t="n">
-        <v>494</v>
-      </c>
-      <c r="F237" t="n">
-        <v>470</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>3</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>9710</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Repisa Portajabón Esquinera Inoxidable 9710 Urrea</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>0</v>
-      </c>
-      <c r="E238" t="n">
-        <v>1120</v>
-      </c>
-      <c r="F238" t="n">
-        <v>955</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>2</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>9817</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Portarrollo Inox 9817 Marca Urrea</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>0</v>
-      </c>
-      <c r="E239" t="n">
-        <v>1160</v>
-      </c>
-      <c r="F239" t="n">
-        <v>863</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>4</v>
-      </c>
-      <c r="B240" t="inlineStr"/>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Juego De Manerales Inox Cix Urrea</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>0</v>
-      </c>
-      <c r="E240" t="n">
-        <v>2650</v>
-      </c>
-      <c r="F240" t="n">
-        <v>0</v>
-      </c>
-      <c r="G240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>4</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>CIX</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Juego De Manerales Inox Cix Urrea</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>0</v>
-      </c>
-      <c r="E241" t="n">
-        <v>2650</v>
-      </c>
-      <c r="F241" t="n">
-        <v>2175</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>3</v>
-      </c>
-      <c r="B242" t="inlineStr"/>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Monomando Para Lavabo 9433pr Urrea</t>
-        </is>
-      </c>
-      <c r="D242" t="n">
-        <v>0</v>
-      </c>
-      <c r="E242" t="n">
-        <v>2961</v>
-      </c>
-      <c r="F242" t="n">
-        <v>0</v>
-      </c>
-      <c r="G242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>3</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>9433PR</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Monomando Para Lavabo 9433pr Urrea</t>
-        </is>
-      </c>
-      <c r="D243" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" t="n">
-        <v>2961</v>
-      </c>
-      <c r="F243" t="n">
-        <v>2451.15</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>10</v>
-      </c>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Válvula De Retención De Columpio 1¨ Vrc01.25 Urrea</t>
-        </is>
-      </c>
-      <c r="D244" t="n">
-        <v>0</v>
-      </c>
-      <c r="E244" t="n">
-        <v>790</v>
-      </c>
-      <c r="F244" t="n">
-        <v>0</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>5</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>VRC01.19</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Valvula Retencion Columpio 3/4 Wog 200lb/pul Vrc01.19 Urrea</t>
-        </is>
-      </c>
-      <c r="D245" t="n">
-        <v>0</v>
-      </c>
-      <c r="E245" t="n">
-        <v>455</v>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G245" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>7</v>
-      </c>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Mezcladora Para Lavabo De 4 Pulgadas 46qc Urrea</t>
-        </is>
-      </c>
-      <c r="D246" t="n">
-        <v>0</v>
-      </c>
-      <c r="E246" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F246" t="n">
-        <v>0</v>
-      </c>
-      <c r="G246" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>7</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>46QC</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Mezcladora Para Lavabo De 4 Pulgadas 46qc Urrea</t>
-        </is>
-      </c>
-      <c r="D247" t="n">
-        <v>0</v>
-      </c>
-      <c r="E247" t="n">
-        <v>1180</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1059</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>5</v>
-      </c>
-      <c r="B248" t="inlineStr"/>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Valvula Retencion Columpio 1/2 Wog 200lb/pul Vrc01.13 Urrea</t>
-        </is>
-      </c>
-      <c r="D248" t="n">
-        <v>0</v>
-      </c>
-      <c r="E248" t="n">
-        <v>355</v>
-      </c>
-      <c r="F248" t="n">
-        <v>0</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>4</v>
-      </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Juego Llaves Válvulas Empotrar Roscables P/regadera 52 Urrea</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>0</v>
-      </c>
-      <c r="E249" t="n">
-        <v>720</v>
-      </c>
-      <c r="F249" t="n">
-        <v>0</v>
-      </c>
-      <c r="G249" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>4</v>
-      </c>
-      <c r="B250" t="inlineStr"/>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Juego Llaves Válvulas Empotrar Roscables P/regadera 52 Urrea</t>
-        </is>
-      </c>
-      <c r="D250" t="n">
-        <v>0</v>
-      </c>
-      <c r="E250" t="n">
-        <v>720</v>
-      </c>
-      <c r="F250" t="n">
-        <v>0</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>6</v>
-      </c>
-      <c r="B251" t="inlineStr"/>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Llave Monomando Corto Para Lavabo 9433lu Urrea</t>
-        </is>
-      </c>
-      <c r="D251" t="n">
-        <v>0</v>
-      </c>
-      <c r="E251" t="n">
-        <v>2065</v>
-      </c>
-      <c r="F251" t="n">
-        <v>0</v>
-      </c>
-      <c r="G251" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>6</v>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>9433LU</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Llave Monomando Corto Para Lavabo 9433lu Urrea</t>
-        </is>
-      </c>
-      <c r="D252" t="n">
-        <v>0</v>
-      </c>
-      <c r="E252" t="n">
-        <v>2065</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1584</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>97</v>
-      </c>
-      <c r="B253" t="inlineStr"/>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Llave Angular Sin Contratuerca 1/2 401sc Urrea</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>0</v>
-      </c>
-      <c r="E253" t="n">
-        <v>165</v>
-      </c>
-      <c r="F253" t="n">
-        <v>0</v>
-      </c>
-      <c r="G253" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>97</v>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>401SC</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Llave Angular Sin Contratuerca 1/2 401sc Urrea</t>
-        </is>
-      </c>
-      <c r="D254" t="n">
-        <v>0</v>
-      </c>
-      <c r="E254" t="n">
-        <v>165</v>
-      </c>
-      <c r="F254" t="n">
-        <v>118.57</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>1</v>
-      </c>
-      <c r="B255" t="inlineStr"/>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Monomando Regadera/tina Cromo Yaz 681yz Urrea</t>
-        </is>
-      </c>
-      <c r="D255" t="n">
-        <v>0</v>
-      </c>
-      <c r="E255" t="n">
-        <v>2550</v>
-      </c>
-      <c r="F255" t="n">
-        <v>0</v>
-      </c>
-      <c r="G255" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>1</v>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>681YZ</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Monomando Regadera/tina Cromo Yaz 681yz Urrea</t>
-        </is>
-      </c>
-      <c r="D256" t="n">
-        <v>0</v>
-      </c>
-      <c r="E256" t="n">
-        <v>2550</v>
-      </c>
-      <c r="F256" t="n">
-        <v>2525</v>
-      </c>
-      <c r="G256" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>3</v>
-      </c>
-      <c r="B257" t="inlineStr"/>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>Juego De Llaves De Empotrar Soldable 652 Urrea</t>
-        </is>
-      </c>
-      <c r="D257" t="n">
-        <v>0</v>
-      </c>
-      <c r="E257" t="n">
-        <v>730</v>
-      </c>
-      <c r="F257" t="n">
-        <v>0</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>3</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>652</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Juego De Llaves De Empotrar Soldable 652 Urrea</t>
-        </is>
-      </c>
-      <c r="D258" t="n">
-        <v>0</v>
-      </c>
-      <c r="E258" t="n">
-        <v>730</v>
-      </c>
-      <c r="F258" t="n">
-        <v>680</v>
-      </c>
-      <c r="G258" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>2</v>
-      </c>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Monomando Para Lavabo 610yz Urrea</t>
-        </is>
-      </c>
-      <c r="D259" t="n">
-        <v>0</v>
-      </c>
-      <c r="E259" t="n">
-        <v>2910</v>
-      </c>
-      <c r="F259" t="n">
-        <v>0</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>2</v>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>610YZ</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     Monomando Para Lavabo 610yz Urrea</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" t="n">
-        <v>2910</v>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G260" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>1</v>
-      </c>
-      <c r="B261" t="inlineStr"/>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Mezcladora Para Lavabo 4 Pulgadas 68yz Urrea</t>
-        </is>
-      </c>
-      <c r="D261" t="n">
-        <v>0</v>
-      </c>
-      <c r="E261" t="n">
-        <v>2695</v>
-      </c>
-      <c r="F261" t="n">
-        <v>0</v>
-      </c>
-      <c r="G261" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data_excel/urrea/URREA.xlsx
+++ b/data_excel/urrea/URREA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>VENTAS</t>
+          <t>PRECIO</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRECIO</t>
+          <t>P.COMP</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>P.COMP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>P.COSTO</t>
         </is>
@@ -485,179 +480,154 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="E2" t="n">
-        <v>221</v>
+        <v>201.24</v>
       </c>
       <c r="F2" t="n">
-        <v>201.24</v>
-      </c>
-      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AVE14</t>
+          <t>7656</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Avellanador 1/4 - 3/4 Ave14 Urrea</t>
+          <t>Adaptador De Impacto 1 Hembra X 3/4 Macho Urrea 7656</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E3" t="n">
-        <v>860</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+        <v>636.15</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7653</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Banco Para Mecánico 75cm Acolchonada 9988 Urrea</t>
+          <t>Adaptador Impacto Hembra 3/4 Cuadro 1/2 Urrea 7653</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="E4" t="n">
-        <v>1850</v>
+        <v>466.07</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BNL</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Base Para Nivel Láser Rosca 1/4´´ Elevación De 8cm Bnl Urrea</t>
+          <t>Asentador De Válvulas De Motor 1-1/8'' A 1-3/8 Urrea 2395</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E5" t="n">
-        <v>280</v>
+        <v>118.47</v>
       </c>
       <c r="F5" t="n">
-        <v>227</v>
-      </c>
-      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CPU17A</t>
+          <t>AVE14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Caja De Herramientas Urrea Cpu17a Plástica Negra</t>
+          <t>Avellanador 1/4 - 3/4 Ave14 Urrea</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>535</v>
+        <v>860</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>479.46</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CPU20A</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Caja De Herramientas Urrea Cpu20a De Plástico 29cm X 53cm X 26cm Negra</t>
+          <t>Banco Para Mecánico 75cm Acolchonada 9988 Urrea</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="E7" t="n">
-        <v>528</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CPU20A</t>
+          <t>BNL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Caja De Herramientas Urrea Cpu20a De Plástico Negra</t>
+          <t>Base Para Nivel Láser Rosca 1/4´´ Elevación De 8cm Bnl Urrea</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="E8" t="n">
-        <v>528</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+        <v>227</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -667,138 +637,121 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9991A</t>
+          <t>23627</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cama Para Mecánico Plástica 6 Ruedas Giratorias 9991a Urrea</t>
+          <t>Bomba Transferencia De Latón Urrea 23627</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1195</v>
       </c>
       <c r="E9" t="n">
-        <v>1450</v>
+        <v>1102.58</v>
       </c>
       <c r="F9" t="n">
-        <v>1390</v>
-      </c>
-      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9980P</t>
+          <t>5493</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Carro Utilitario Plástico 3 Anaqueles Urrea 9980p</t>
+          <t>Caja De Herramientas 5493 De Metal Roja Urrea</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="E10" t="n">
-        <v>5550</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+        <v>464</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R470078</t>
+          <t>CPU17A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cartucho 312 Vástago Para Regadera R470078 Urrea</t>
+          <t>Caja De Herramientas Urrea Cpu17a Plástica Negra</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="E11" t="n">
-        <v>185</v>
+        <v>479.46</v>
       </c>
       <c r="F11" t="n">
-        <v>165</v>
-      </c>
-      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R280443</t>
+          <t>CPU20A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cartucho Cerámico Derecho Chico R280443 Urrea</t>
+          <t>Caja De Herramientas Urrea Cpu20a De Plástico 29cm X 53cm X 26cm Negra</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>198</v>
-      </c>
-      <c r="F12" t="inlineStr">
+        <v>528</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R280443</t>
+          <t>CPU20A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cartucho Cerámico Derecho Chico R280443 Urrea Acabado Cromado Color Plateado</t>
+          <t>Caja De Herramientas Urrea Cpu20a De Plástico Negra</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>198</v>
-      </c>
-      <c r="F13" t="inlineStr">
+        <v>528</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="F13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -808,24 +761,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>USH02B</t>
+          <t>5493</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Casco De Seguridad C/ajuste De Intervalos Azul Ush02b Urrea</t>
+          <t>Caja Metálica Usos Múltiples Color Rojo 17 X 4 X 4 Urrea</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="E14" t="n">
-        <v>145</v>
+        <v>479</v>
       </c>
       <c r="F14" t="n">
-        <v>128.29</v>
-      </c>
-      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -835,78 +785,69 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>9991A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Charola Magnética Rectangular 14 Cm X 24 Cm 2303 Urrea</t>
+          <t>Cama Para Mecánico Plástica 6 Ruedas Giratorias 9991a Urrea</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="E15" t="n">
-        <v>252</v>
+        <v>1390</v>
       </c>
       <c r="F15" t="n">
-        <v>231.59</v>
-      </c>
-      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>9980P</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Charola Magnética Redonda 15 Cm De Diámetro 2302 Urrea</t>
+          <t>Carro Utilitario Plástico 3 Anaqueles Urrea 9980p</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>5550</v>
       </c>
       <c r="E16" t="n">
-        <v>152</v>
+        <v>4490.94</v>
       </c>
       <c r="F16" t="n">
-        <v>136</v>
-      </c>
-      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USC01M</t>
+          <t>R470078</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cinturón Para Liniero Talla 40 Usc01m Urrea</t>
+          <t>Cartucho 312 Vástago Para Regadera R470078 Urrea</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E17" t="n">
-        <v>1035</v>
+        <v>160</v>
       </c>
       <c r="F17" t="n">
-        <v>876.3</v>
-      </c>
-      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -916,170 +857,169 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CCRPINOX.37</t>
+          <t>R280443</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Coladera Cuadrada Rejilla Perforada Negra Ccrpinox.37 Urrea</t>
+          <t>Cartucho Cerámico Derecho Chico R280443 Urrea</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1075</v>
+        <v>198</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F18" t="n">
-        <v>1029</v>
-      </c>
-      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>R280443</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Coladera Cuadrada Rejilla Redonda Negra Ccrrinox.37 Urrea</t>
+          <t>Cartucho Cerámico Derecho Chico R280443 Urrea Acabado Cromado Color Plateado</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>760</v>
+        <v>198</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>USH02B</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Compresor 2hp 25 Litros Comp825 Urrea</t>
+          <t>Casco De Seguridad C/ajuste De Intervalos Azul Ush02b Urrea</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E20" t="n">
-        <v>7340</v>
+        <v>128.29</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COMP824L</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Compresor De Aire Eléctrico  Urrea Comp824l 24l 1.5hp 127v</t>
+          <t>Charola Magnética Rectangular 14 Cm X 24 Cm 2303 Urrea</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="E21" t="n">
-        <v>10200</v>
+        <v>231.59</v>
       </c>
       <c r="F21" t="n">
-        <v>8827.76</v>
-      </c>
-      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>COMP824L</t>
+          <t>2302</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Compresor De Aire Eléctrico Comp824l Monofásico 24l Urrea</t>
+          <t>Charola Magnética Redonda 15 Cm De Diámetro 2302 Urrea</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="E22" t="n">
-        <v>10200</v>
+        <v>138.1</v>
       </c>
       <c r="F22" t="n">
-        <v>8827.76</v>
-      </c>
-      <c r="G22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>USC01M</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Compresor De Aire Eléctrico Portátil Comp850 Urrea</t>
+          <t>Cinturón Para Liniero Talla 40 Usc01m Urrea</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="E23" t="n">
-        <v>9590</v>
+        <v>911</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CCRPINOX.37</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compresora Industrial Urrea 2hp 25 Litros Con Manometro Fase Eléctrica Monofásica Frecuencia 60 Hz</t>
+          <t>Coladera Cuadrada Rejilla Perforada Negra Ccrpinox.37 Urrea</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="E24" t="n">
-        <v>7340</v>
+        <v>1029</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1090,617 +1030,530 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Compresora Uso Continuo 2.5hp 50 Litros Con Manometro Urrea Color Negro Frecuencia 60 Hz</t>
+          <t>Coladera Cuadrada Rejilla Redonda Negra Ccrrinox.37 Urrea</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="E25" t="n">
-        <v>9590</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>UP874</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cortadora Neumática De Disco 3 20000rpm Up874 Urrea</t>
+          <t>Coladera Cuadrada Salida Lateral Cromada 182 Urrea</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E26" t="n">
-        <v>1465</v>
+        <v>165.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1120</v>
-      </c>
-      <c r="G26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DDIC45</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Disco De Diamante Continuo, 4-1/2 Ddic45 Urrea</t>
+          <t>Compresor 2hp 25 Litros Comp825 Urrea</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>7340</v>
       </c>
       <c r="E27" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>101.75</v>
-      </c>
-      <c r="G27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDIC45</t>
+          <t>COMP824L</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Disco De Diamante Continuo, 4-1/2 Urrea</t>
+          <t>Compresor De Aire Eléctrico  Urrea Comp824l 24l 1.5hp 127v</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="E28" t="n">
-        <v>113</v>
+        <v>8827.76</v>
       </c>
       <c r="F28" t="n">
-        <v>101.75</v>
-      </c>
-      <c r="G28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R207025</t>
+          <t>COMP824L</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Disco De Hule Repuesto Para Vástago 10 Pzs R207025 Urrea</t>
+          <t>Compresor De Aire Eléctrico Comp824l Monofásico 24l Urrea</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="E29" t="n">
-        <v>90</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
+        <v>8827.76</v>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>JCD01</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Estuche Con Matraca Reversible Y Dados 63 Piezas Jcd01 Urrea</t>
+          <t>Compresor De Aire Eléctrico Portátil Comp850 Urrea</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>9590</v>
       </c>
       <c r="E30" t="n">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1188.75</v>
-      </c>
-      <c r="G30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>JDPU48</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Estuche De 48 Puntas Intercambiables Jdpu48 Urrea</t>
+          <t>Compresora Industrial Urrea 2hp 25 Litros Con Manometro Fase Eléctrica Monofásica Frecuencia 60 Hz</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>7340</v>
       </c>
       <c r="E31" t="n">
-        <v>600</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Extensión De 1/4x10 4762 Urrea</t>
+          <t>Compresora Uso Continuo 2.5hp 50 Litros Con Manometro Urrea Color Negro Frecuencia 60 Hz</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>9590</v>
       </c>
       <c r="E32" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UP874</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Extensión De 1/4x6 4761 Urrea</t>
+          <t>Cortadora Neumática De Disco 3 20000rpm Up874 Urrea</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1465</v>
       </c>
       <c r="E33" t="n">
-        <v>145</v>
+        <v>1120</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>526006</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Extensión De 3/8x6 Adaptador Para Dado Cuadro 526006 Urrea</t>
+          <t>Céspol Flexible Y Rejilla De Acero Inoxidable 3721 Urrea</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="E34" t="n">
-        <v>129</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+        <v>310.25</v>
+      </c>
+      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4765</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Extensión Flexible 1/4 X 6 4765 Urrea</t>
+          <t>Céspol Lavabo Flexible Cubierta Metalizado 3722 Urrea</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="E35" t="n">
-        <v>128</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
+        <v>305</v>
+      </c>
+      <c r="F35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10607B</t>
+          <t>07524LS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Extensión Impacto 1 X 7  Con Balín 10607b Urrea</t>
+          <t>Dado Para Ruedas De Camión 3/4 X1 1/2 Urrea 07524ls</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1485</v>
+        <v>605</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F36" t="n">
-        <v>1325.82</v>
-      </c>
-      <c r="G36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12</v>
-      </c>
-      <c r="B37" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Extensión Impacto 1/2 X5 7181p Urrea</t>
+          <t>Dado Para Suspension Audi® Y Vw® 7/8 In Urrea 2327</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>180</v>
+        <v>250</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6965</t>
+          <t>DDIC45</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Extensión Impacto 1/4x6 6965 Urrea</t>
+          <t>Disco De Diamante Continuo, 4-1/2 Ddic45 Urrea</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E38" t="n">
-        <v>179</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="F38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>UPWL4</t>
+          <t>DDIC45</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Filtro Regulador Y Lubricador De Aire 1/2´´ Npt Upwl4 Urrea</t>
+          <t>Disco De Diamante Continuo, 4-1/2 Urrea</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="E39" t="n">
-        <v>2025</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>UPWL2</t>
+          <t>R207025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Filtro Regulador Y Lubricador De Aire 1/4 Npt Upwl2 Urrea</t>
+          <t>Disco De Hule Repuesto Para Vástago 10 Pzs R207025 Urrea</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1060</v>
-      </c>
-      <c r="F40" t="inlineStr">
+        <v>90</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="F40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1599LSW</t>
+          <t>EMB1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Flexómetro De Acero Inoxidable 10m X 30 Mm 1599lsw Urrea</t>
+          <t>Embudo Anti-salpicaduras 3l Emb1 Urrea</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="E41" t="n">
-        <v>390</v>
+        <v>246</v>
       </c>
       <c r="F41" t="n">
-        <v>275</v>
-      </c>
-      <c r="G41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>USLG1</t>
+          <t>EMB2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Googles Ventilación Por Canal Uslg1 Urrea</t>
+          <t>Embudo Anti-salpicaduras De 1.7 Lt  Emb2 Urrea</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="E42" t="n">
-        <v>215</v>
+        <v>219.9</v>
       </c>
       <c r="F42" t="n">
-        <v>170</v>
-      </c>
-      <c r="G42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9444INOX</t>
+          <t>JCD01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Grifo De Cocina  Monomando Urrea 9444inox  Acero Inoxidable</t>
+          <t>Estuche Con Matraca Reversible Y Dados 63 Piezas Jcd01 Urrea</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1585</v>
       </c>
       <c r="E43" t="n">
-        <v>2939</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
+        <v>1188.75</v>
+      </c>
+      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>23641</t>
+          <t>JDPU48</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Grifo Para Tambo (tambo Plástico O De Metal) Urrea 23641</t>
+          <t>Estuche De 48 Puntas Intercambiables Jdpu48 Urrea</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>530</v>
+        <v>600</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F44" t="n">
-        <v>476.4</v>
-      </c>
-      <c r="G44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>USGGG</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Guante Mecánico Talla Grande Usggg Urrea</t>
+          <t>Extensión De 1/4x10 4762 Urrea</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="E45" t="n">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>272.19</v>
-      </c>
-      <c r="G45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>USGDM</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Guante Supraneema/nitrilo Mediana Usgdm Urrea</t>
+          <t>Extensión De 1/4x6 4761 Urrea</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E46" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.6</v>
-      </c>
-      <c r="G46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HG865</t>
+          <t>526006</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hidrolavadora A Gasolina 3,200 Psi 6.5 Hp Hg865 Urrea</t>
+          <t>Extensión De 3/8x6 Adaptador Para Dado Cuadro 526006 Urrea</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>26100</v>
+        <v>129</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F47" t="n">
-        <v>23407.87</v>
-      </c>
-      <c r="G47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1710,113 +1563,91 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>508YZ</t>
+          <t>4765</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Jabonera De Empotrar Cromo 508yz Urrea</t>
+          <t>Extensión Flexible 1/4 X 6 4765 Urrea</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>830</v>
-      </c>
-      <c r="F48" t="inlineStr">
+        <v>128</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="F48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>52122</t>
+          <t>5268</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Juego 10 Dados Cuadro De 3/8 Pulgadas C6 Puntas 52122 Urrea</t>
+          <t>Extensión Flexible 3/8x8 5268 Urrea</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="E49" t="n">
-        <v>480</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
+        <v>238</v>
+      </c>
+      <c r="F49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>52107</t>
+          <t>10607B</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Juego 10 Dados Largos Cuadro De 3/8'' 12 Puntas 52107 Urrea</t>
+          <t>Extensión Impacto 1 X 7  Con Balín 10607b Urrea</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1485</v>
       </c>
       <c r="E50" t="n">
-        <v>670</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
+        <v>1325.82</v>
+      </c>
+      <c r="F50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>52111</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Juego 10 Dados Largos Pulgadas Cuadro De 3/8 52111 Urrea</t>
+          <t>Extensión Impacto 1/2 X5 7181p Urrea</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E51" t="n">
-        <v>670</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,78 +1655,75 @@
       <c r="A52" t="n">
         <v>6</v>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6965</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Juego 10 Dados Pulgadas Cuadro De 3/8 C12 Puntas 52118 Urrea</t>
+          <t>Extensión Impacto 1/4x6 6965 Urrea</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>490</v>
+        <v>179</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>J6011</t>
+          <t>USF01G</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Juego 11 Puntas Brístol, Zanco 3/8'' + Caja Metálica Urrea</t>
+          <t>Faja Elást. Sacrolumbar 3 Cint. Grande (34-38) Usf01g Urrea</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="E53" t="n">
-        <v>635</v>
+        <v>218.05</v>
       </c>
       <c r="F53" t="n">
-        <v>568.01</v>
-      </c>
-      <c r="G53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>52216</t>
+          <t>UPWL4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Juego 12 Dados Métricos Cuadro De 3/8 C12 Puntas 52216 Urrea</t>
+          <t>Filtro Regulador Y Lubricador De Aire 1/2´´ Npt Upwl4 Urrea</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>508</v>
-      </c>
-      <c r="F54" t="inlineStr">
+        <v>2025</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G54" t="n">
+      <c r="F54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1905,82 +1733,71 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>52212</t>
+          <t>UPWL2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Juego 12 Dados Métricos Cuadro De 3/8 C6 Puntas 52212 Urrea</t>
+          <t>Filtro Regulador Y Lubricador De Aire 1/4 Npt Upwl2 Urrea</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>508</v>
-      </c>
-      <c r="F55" t="inlineStr">
+        <v>1060</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G55" t="n">
+      <c r="F55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>54214</t>
+          <t>1599LSW</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Juego 15 Dados Métricos Cuadro De 1/2 12 Puntas 54214 Urrea</t>
+          <t>Flexómetro De Acero Inoxidable 10m X 30 Mm 1599lsw Urrea</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="E56" t="n">
-        <v>860</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
+        <v>275</v>
+      </c>
+      <c r="F56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CH313</t>
+          <t>USLG1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Juego 15 Llaves Comb Matraca Métrico Industrial Ch313 Urrea</t>
+          <t>Googles Ventilación Por Canal Uslg1 Urrea</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E57" t="n">
-        <v>4920</v>
+        <v>170</v>
       </c>
       <c r="F57" t="n">
-        <v>4394.2</v>
-      </c>
-      <c r="G57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1990,192 +1807,167 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CH313</t>
+          <t>9444INOX</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Juego 15 Llaves Combinadas Matraca Métrico Industrial Urrea</t>
+          <t>Grifo De Cocina  Monomando Urrea 9444inox  Acero Inoxidable</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4920</v>
+        <v>2939</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F58" t="n">
-        <v>4394.2</v>
-      </c>
-      <c r="G58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>49822</t>
+          <t>23641</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Juego 22 Llaves Hexagonales L Comb Punta Bola Urrea 49822</t>
+          <t>Grifo Para Tambo (tambo Plástico O De Metal) Urrea 23641</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E59" t="n">
-        <v>680</v>
+        <v>476.4</v>
       </c>
       <c r="F59" t="n">
-        <v>646</v>
-      </c>
-      <c r="G59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9700C</t>
+          <t>USGGG</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Juego 5 Desarmadores Aislados 1000v Urrea 9700c</t>
+          <t>Guante Mecánico Talla Grande Usggg Urrea</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="E60" t="n">
-        <v>425</v>
+        <v>272.19</v>
       </c>
       <c r="F60" t="n">
-        <v>420</v>
-      </c>
-      <c r="G60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>JUP54</t>
+          <t>USGDM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Juego 54 Puntas Magneticas P/taladro Dest. Jup54 Urrea</t>
+          <t>Guante Supraneema/nitrilo Mediana Usgdm Urrea</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="E61" t="n">
-        <v>605</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="F61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7400SWL</t>
+          <t>GJ15</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Juego 6 Piezas Extractor Tuercas Barridas 7400swl Urrea</t>
+          <t>Guía Jalacable 15 M Gj15 Urrea</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="E62" t="n">
-        <v>2830</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
+        <v>520.13</v>
+      </c>
+      <c r="F62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7400SWL</t>
+          <t>2388</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Juego 6 Piezas Extractor Tuercas Barridas Doble Boca Urrea</t>
+          <t>Herramienta Instalar Polea Cigüeñal Honda-acura Urrea 2388</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="E63" t="n">
-        <v>2830</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
+        <v>749</v>
+      </c>
+      <c r="F63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>360D</t>
+          <t>HG865</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Juego 6 Pinzas Anillos De Retención Industriales Urrea 360d</t>
+          <t>Hidrolavadora A Gasolina 3,200 Psi 6.5 Hp Hg865 Urrea</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="E64" t="n">
-        <v>2320</v>
+        <v>23407.87</v>
       </c>
       <c r="F64" t="n">
-        <v>2315</v>
-      </c>
-      <c r="G64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2185,296 +1977,271 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4990-7L</t>
+          <t>508YZ</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Juego 7 Dados Largos Hexagonal En Pulgadas 3/8 4990-7l Urrea</t>
+          <t>Jabonera De Empotrar Cromo 508yz Urrea</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>620</v>
+        <v>830</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F65" t="n">
-        <v>552.26</v>
-      </c>
-      <c r="G65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5</v>
-      </c>
-      <c r="B66" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5401CD</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Juego De 10 Destornilladores Bimaterial Comb Urrea 8600f</t>
+          <t>Jgo Dados Y Accesorios Combinados 30pz 1/2 Caja Urrea 5401cd</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="E66" t="n">
-        <v>683</v>
+        <v>1546.81</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>JBUD02</t>
+          <t>52122</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Juego De 10 Destornilladores Ámbar Combinado Jbud02 Urrea</t>
+          <t>Juego 10 Dados Cuadro De 3/8 Pulgadas C6 Puntas 52122 Urrea</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>595</v>
-      </c>
-      <c r="F67" t="inlineStr">
+        <v>480</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G67" t="n">
+      <c r="F67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>52218</t>
+          <t>52107</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Juego De 17 Dados Y Matraca C/extension 3/8 52218 Urrea</t>
+          <t>Juego 10 Dados Largos Cuadro De 3/8'' 12 Puntas 52107 Urrea</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1265</v>
-      </c>
-      <c r="F68" t="inlineStr">
+        <v>670</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G68" t="n">
+      <c r="F68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>795G</t>
+          <t>52111</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Juego De 3 Llaves Ajustable Rubber Grip 795g Urrea</t>
+          <t>Juego 10 Dados Largos Pulgadas Cuadro De 3/8 52111 Urrea</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1325</v>
-      </c>
-      <c r="F69" t="inlineStr">
+        <v>670</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G69" t="n">
+      <c r="F69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>795</t>
-        </is>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Juego De 3 Llaves Ajustables Cromadas 795 Urrea</t>
+          <t>Juego 10 Dados Pulgadas Cuadro De 3/8 C12 Puntas 52118 Urrea</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1147.6</v>
-      </c>
-      <c r="G70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>795S</t>
+          <t>73112</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Juego De 3 Llaves Ajustables Fosfatizadas 795s Urrea</t>
+          <t>Juego 11 Dados De Impacto Largos En 1/2¨ Urrea 73112</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1780</v>
       </c>
       <c r="E71" t="n">
-        <v>1185</v>
+        <v>1599.11</v>
       </c>
       <c r="F71" t="n">
-        <v>1175</v>
-      </c>
-      <c r="G71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>J200G</t>
+          <t>J6011</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Juego De 4 Diferentes Pinzas J200g Urrea</t>
+          <t>Juego 11 Puntas Brístol, Zanco 3/8'' + Caja Metálica Urrea</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="E72" t="n">
-        <v>1410</v>
+        <v>568.01</v>
       </c>
       <c r="F72" t="n">
-        <v>1210.97</v>
-      </c>
-      <c r="G72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2700LP</t>
+          <t>52216</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Juego De 4 Pinzas De Presión Uso Industrial 2700lp Urrea</t>
+          <t>Juego 12 Dados Métricos Cuadro De 3/8 C12 Puntas 52216 Urrea</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>930</v>
+        <v>508</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F73" t="n">
-        <v>885.09</v>
-      </c>
-      <c r="G73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>JBUD01</t>
+          <t>52212</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Juego De 5 Destornilladores Ámbar Combinados Urrea Jbud01</t>
+          <t>Juego 12 Dados Métricos Cuadro De 3/8 C6 Puntas 52212 Urrea</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>270</v>
+        <v>508</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F74" t="n">
-        <v>266</v>
-      </c>
-      <c r="G74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9600G</t>
+          <t>73214M</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Juego De 6 Destornilladores Ámbar Combinado Urrea 9600g</t>
+          <t>Juego 15 Dados Impacto Largos Métricos 1/2 Inch Urrea 73214m</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>450</v>
+        <v>2060</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F75" t="n">
-        <v>382</v>
-      </c>
-      <c r="G75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2484,290 +2251,269 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>360A</t>
+          <t>54214</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Juego De 6 Pinzas Para Anillos De Retención Conv Urrea 360a</t>
+          <t>Juego 15 Dados Métricos Cuadro De 1/2 12 Puntas 54214 Urrea</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2910</v>
+        <v>860</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F76" t="n">
-        <v>2464.83</v>
-      </c>
-      <c r="G76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
-      </c>
-      <c r="B77" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CH313</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Juego De 9 Pinzas De Precisión Esd Con Estuche Urrea Jppu9</t>
+          <t>Juego 15 Llaves Comb Matraca Métrico Industrial Ch313 Urrea</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>4920</v>
       </c>
       <c r="E77" t="n">
-        <v>450</v>
+        <v>4394.2</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>JH01</t>
+          <t>CH313</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Juego De Dados Y Accesorios Alta Dureza 230piezas Jh01 Urrea</t>
+          <t>Juego 15 Llaves Combinadas Matraca Métrico Industrial Urrea</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>4920</v>
       </c>
       <c r="E78" t="n">
-        <v>5050</v>
+        <v>4394.2</v>
       </c>
       <c r="F78" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5200CB</t>
+          <t>49822</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Juego De Dados Y Accesorios Combinados 33 Pzas Urrea 5200cb</t>
+          <t>Juego 22 Llaves Hexagonales L Comb Punta Bola Urrea 49822</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E79" t="n">
-        <v>1590</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
+        <v>646</v>
+      </c>
+      <c r="F79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5400CB</t>
+          <t>7300MP</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Juego De Dados Y Accesorios Combinados 42 Pzas 5400cb Urrea</t>
+          <t>Juego 3 Dados Impacto Protección Métricos 1/2 Urrea 7300mp</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="E80" t="n">
-        <v>3245</v>
+        <v>636.15</v>
       </c>
       <c r="F80" t="n">
-        <v>1955</v>
-      </c>
-      <c r="G80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5201CD</t>
+          <t>9700C</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Juego De Dados Y Accesorios Combinados 47 Pzas 5201cd Urrea</t>
+          <t>Juego 5 Desarmadores Aislados 1000v Urrea 9700c</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="E81" t="n">
-        <v>1480</v>
+        <v>420</v>
       </c>
       <c r="F81" t="n">
-        <v>938.6</v>
-      </c>
-      <c r="G81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JCM01</t>
+          <t>JUP54</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Juego De Dados Y Accesorios En Caja 178 Piezas Jcm01 Urrea</t>
+          <t>Juego 54 Puntas Magneticas P/taladro Dest. Jup54 Urrea</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>5850</v>
+        <v>605</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F82" t="n">
-        <v>4764.56</v>
-      </c>
-      <c r="G82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JDT25</t>
+          <t>7400SWL</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Juego De Destornilladores Trimaterial 25pz Jdt25 Urrea</t>
+          <t>Juego 6 Piezas Extractor Tuercas Barridas 7400swl Urrea</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1020</v>
+        <v>2830</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F83" t="n">
-        <v>891</v>
-      </c>
-      <c r="G83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JCM02</t>
+          <t>7400SWL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Juego De Herramienta En Caja Metálica 130 Pzs Jcm02 Urrea</t>
+          <t>Juego 6 Piezas Extractor Tuercas Barridas Doble Boca Urrea</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2899</v>
+        <v>2830</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F84" t="n">
-        <v>2536.52</v>
-      </c>
-      <c r="G84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4</v>
-      </c>
-      <c r="B85" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>360D</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Juego De Letras De Golpe 5 Mm (3/16 ) Urrea 42l5</t>
+          <t>Juego 6 Pinzas Anillos De Retención Industriales Urrea 360d</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>2320</v>
       </c>
       <c r="E85" t="n">
-        <v>1089</v>
+        <v>2315</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>52C</t>
+          <t>4990-7L</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Juego De Llaves De Empotrar Roscables Compactas 52c Urrea</t>
+          <t>Juego 7 Dados Largos Hexagonal En Pulgadas 3/8 4990-7l Urrea</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="E86" t="n">
-        <v>550</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
+        <v>552.26</v>
+      </c>
+      <c r="F86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,80 +2523,67 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>72112</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Juego De Llaves De Empotrar Soldable 652 Urrea</t>
+          <t>Juego 8 Dados Impacto Largos En Pulgadas 3/8 Urrea 72112</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E87" t="n">
-        <v>730</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
+        <v>575.46</v>
+      </c>
+      <c r="F87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>EO</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Juego De Manerales Grandes Eo Urrea</t>
+          <t>Juego Combinado De 16 Llaves Hexagonales 49816 Urrea</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1159</v>
+        <v>395</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F88" t="n">
-        <v>993.28</v>
-      </c>
-      <c r="G88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Juego De Manerales Grandes Kg Urrea</t>
+          <t>Juego De 10 Destornilladores Bimaterial Comb Urrea 8600f</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="E89" t="n">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>470</v>
-      </c>
-      <c r="G89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2860,51 +2593,49 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>EO</t>
+          <t>JBUD02</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Juego De Manerales Grandes Neo Urrea - Cromo Accesorios Baño</t>
+          <t>Juego De 10 Destornilladores Ámbar Combinado Jbud02 Urrea</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1159</v>
+        <v>595</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F90" t="n">
-        <v>993.28</v>
-      </c>
-      <c r="G90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>4900-10</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Juego De Manerales Grandes Urrea Kg Zamac Acabado Cromo Acabado Cromado</t>
+          <t>Juego De 10 Llaves Pata Cuervo 3/8 4900-10 Urrea</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>494</v>
+        <v>975</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F91" t="n">
-        <v>470</v>
-      </c>
-      <c r="G91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2914,541 +2645,481 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CIX</t>
+          <t>4965</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Juego De Manerales Inox Cix Urrea</t>
+          <t>Juego De 10 Llaves T En Pulgadas 6 4965 Urrea</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="E92" t="n">
-        <v>2650</v>
+        <v>752.17</v>
       </c>
       <c r="F92" t="n">
-        <v>2175</v>
-      </c>
-      <c r="G92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>QG</t>
+          <t>72202</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Juego De Manerales Qg Cromo Zamak Urrea</t>
+          <t>Juego De 11 Dados De Impacto Métricos 3/8 Urrea 72202</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E93" t="n">
-        <v>530</v>
+        <v>498.72</v>
       </c>
       <c r="F93" t="n">
-        <v>349</v>
-      </c>
-      <c r="G93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>QGS</t>
+          <t>52205</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Juego De Manerales Queen Grande Sin Chapetón Qgs Urrea</t>
+          <t>Juego De 12 Dados Largos Métricos 3/8 6 Puntas 52205 Urrea</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="E94" t="n">
-        <v>379</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
+        <v>654.09</v>
+      </c>
+      <c r="F94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CIX</t>
+          <t>1200DA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Juego De Manerales Urrea Grandes Inox Cix Mango En Cruz Acabado Mate Color Acero Inoxidable</t>
+          <t>Juego De 14 Llaves Combinadas En Pulgadas Urrea 1200da</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>2195</v>
       </c>
       <c r="E95" t="n">
-        <v>2650</v>
+        <v>1938.59</v>
       </c>
       <c r="F95" t="n">
-        <v>2175</v>
-      </c>
-      <c r="G95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>UP711K</t>
+          <t>52218</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Juego De Martillo Neumático Con 5 Cinceles Up711k Urrea</t>
+          <t>Juego De 17 Dados Y Matraca C/extension 3/8 52218 Urrea</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2906</v>
-      </c>
-      <c r="F96" t="inlineStr">
+        <v>1265</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G96" t="n">
+      <c r="F96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>J6011</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Juego De Puntas Bristol Hexágono De 3/8´´ 11 Pz J6011 Urrea</t>
+          <t>Juego De 2 Opresores De Manguera 7/8 Urrea 2379</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="E97" t="n">
-        <v>635</v>
+        <v>184.29</v>
       </c>
       <c r="F97" t="n">
-        <v>568.01</v>
-      </c>
-      <c r="G97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5466RS</t>
+          <t>49824</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Juego De Refacción Mango Articulado 1/2 5466rs Urrea</t>
+          <t>Juego De 24 Llaves Hexagonales Allen Y Torx 49824 Urrea</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>200</v>
+        <v>670</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F98" t="n">
-        <v>174.47</v>
-      </c>
-      <c r="G98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>50900</t>
+          <t>795G</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Juego De Sacabocados 7 Piezas Para Láminas 50900 Urrea</t>
+          <t>Juego De 3 Llaves Ajustable Rubber Grip 795g Urrea</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2245</v>
+        <v>1325</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F99" t="n">
-        <v>2110.45</v>
-      </c>
-      <c r="G99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>9600D</t>
+          <t>795</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Juego Desarmadores Combinados (8 Pzas),  Urrea 9600d</t>
+          <t>Juego De 3 Llaves Ajustables Cromadas 795 Urrea</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="E100" t="n">
-        <v>550</v>
+        <v>1147.6</v>
       </c>
       <c r="F100" t="n">
-        <v>494.25</v>
-      </c>
-      <c r="G100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>9600A</t>
+          <t>795S</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Juego Desarmadores Phillips 6 Pzas Ambar 9600a Urrea</t>
+          <t>Juego De 3 Llaves Ajustables Fosfatizadas 795s Urrea</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1185</v>
       </c>
       <c r="E101" t="n">
-        <v>505</v>
+        <v>1175</v>
       </c>
       <c r="F101" t="n">
-        <v>430</v>
-      </c>
-      <c r="G101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>9500b</t>
+          <t>J200G</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Juego Extractor Cola Cochino Para Tornillos 5 Pz Urrea 9500b</t>
+          <t>Juego De 4 Diferentes Pinzas J200g Urrea</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1410</v>
       </c>
       <c r="E102" t="n">
-        <v>219</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
+        <v>1210.97</v>
+      </c>
+      <c r="F102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>9201B</t>
+          <t>2700LP</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Juego Herramienta Eléctrica Urrea 9201b</t>
+          <t>Juego De 4 Pinzas De Presión Uso Industrial 2700lp Urrea</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="E103" t="n">
-        <v>950</v>
+        <v>885.09</v>
       </c>
       <c r="F103" t="n">
-        <v>945</v>
-      </c>
-      <c r="G103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>JBUD01</t>
+        </is>
+      </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Juego Llaves Válvulas Empotrar Roscables P/regadera 52 Urrea</t>
+          <t>Juego De 5 Destornilladores Ámbar Combinados Urrea Jbud01</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E104" t="n">
-        <v>720</v>
+        <v>266</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>JUP34</t>
+          <t>5400TX</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Kit 34 Puntas Destornillador Amortiguador Jup34 Urrea</t>
+          <t>Juego De 6 Dados De 1/2 Torx® Hembra Urrea 5400tx</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="E105" t="n">
-        <v>410</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
+        <v>444.77</v>
+      </c>
+      <c r="F105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>JDPU117</t>
+          <t>4990SML</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Kit Desarmador Destor.reparacion Celular 117pz Jdpu117 Urrea</t>
+          <t>Juego De 6 Dados Largos Punta Hexagonal 3/8 4990sml Urrea</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="E106" t="n">
-        <v>585</v>
+        <v>503.18</v>
       </c>
       <c r="F106" t="n">
-        <v>569</v>
-      </c>
-      <c r="G106" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>USL008</t>
+          <t>9600G</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Lentes Seguridad Mujer Rosa Mica Transparente Usl008 Urrea</t>
+          <t>Juego De 6 Destornilladores Ámbar Combinado Urrea 9600g</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E107" t="n">
-        <v>135</v>
+        <v>382</v>
       </c>
       <c r="F107" t="n">
-        <v>130</v>
-      </c>
-      <c r="G107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>LPA10</t>
+          <t>360A</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Linterna A Prueba De Agua 100 Lm A Baterías Urrea</t>
+          <t>Juego De 6 Pinzas Para Anillos De Retención Conv Urrea 360a</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>2910</v>
       </c>
       <c r="E108" t="n">
-        <v>382</v>
+        <v>2464.83</v>
       </c>
       <c r="F108" t="n">
-        <v>277.77</v>
-      </c>
-      <c r="G108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LPA10</t>
+          <t>9700BA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Linterna A Prueba De Agua 100 Lm A Baterías Urrea Lpa10</t>
+          <t>Juego De 7 Destornilladores Bimaterial 1000v 9700ba Urrea</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>382</v>
+        <v>645</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F109" t="n">
-        <v>277.77</v>
-      </c>
-      <c r="G109" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LPA35</t>
+          <t>4966</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Linterna A Prueba De Agua 350 Lumenes Aaa Baterias Urrea</t>
+          <t>Juego De 8 Llaves T Métricas 6 Pulgadas 4966 Urrea</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E110" t="n">
-        <v>600</v>
+        <v>672.74</v>
       </c>
       <c r="F110" t="n">
-        <v>555</v>
-      </c>
-      <c r="G110" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>LPA35</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Linterna A Prueba De Agua 350 Lumenes Bateria 3a Urrea Lpa35</t>
+          <t>Juego De 9 Pinzas De Precisión Esd Con Estuche Urrea Jppu9</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E111" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>555</v>
-      </c>
-      <c r="G111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3458,78 +3129,71 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LAPU1</t>
+          <t>750010</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Linterna De Alta Potencia Recargable Lapu1 Urrea</t>
+          <t>Juego De Dados 3/4  Fosfatizado 10pzas 750010 Urrea</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="E112" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="F112" t="n">
-        <v>830.46</v>
-      </c>
-      <c r="G112" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LAPU3</t>
+          <t>JH01</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Linterna De Led De Alta Potencia Recargables De 3000lm Urrea Color De La Linterna Negro Color De La Luz Blanco</t>
+          <t>Juego De Dados Y Accesorios Alta Dureza 230piezas Jh01 Urrea</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>5050</v>
       </c>
       <c r="E113" t="n">
-        <v>1900</v>
+        <v>4500</v>
       </c>
       <c r="F113" t="n">
-        <v>1710</v>
-      </c>
-      <c r="G113" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>LRU6A</t>
+          <t>5200CB</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Linterna De Led Recargable Con Alarma De 600 Lm Urrea Color De La Luz Blanco</t>
+          <t>Juego De Dados Y Accesorios Combinados 33 Pzas Urrea 5200cb</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1200</v>
+        <v>1590</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F114" t="n">
-        <v>1178.51</v>
-      </c>
-      <c r="G114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3539,298 +3203,261 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>LPL30</t>
+          <t>5400CB</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Linterna De Led Tipo Pluma Recargable De 300lm Lpl30 Urrea</t>
+          <t>Juego De Dados Y Accesorios Combinados 42 Pzas 5400cb Urrea</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>3245</v>
       </c>
       <c r="E115" t="n">
-        <v>665</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
+        <v>1955</v>
+      </c>
+      <c r="F115" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>LRU6A</t>
+          <t>JCB01</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Linterna Led Recargable Usb 600lm Lru6a Alarma Urrea</t>
+          <t>Juego De Dados Y Accesorios Combinados 450 Pzas Urrea Jcb01</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>9390</v>
       </c>
       <c r="E116" t="n">
-        <v>1200</v>
+        <v>7572.65</v>
       </c>
       <c r="F116" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G116" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>LR14</t>
+          <t>5201CD</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Linterna Led Reflectora 1400 Lm Contra Agua Lr14 Urrea</t>
+          <t>Juego De Dados Y Accesorios Combinados 47 Pzas 5201cd Urrea</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="E117" t="n">
-        <v>1850</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
+        <v>938.6</v>
+      </c>
+      <c r="F117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>LAPU2</t>
+          <t>JCM01</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Linterna Urrea Lapu2 Alta Potencia Recargable 2000lm Pesado Linterna Negro Luz Blanco</t>
+          <t>Juego De Dados Y Accesorios En Caja 178 Piezas Jcm01 Urrea</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>5850</v>
       </c>
       <c r="E118" t="n">
-        <v>1190</v>
+        <v>4764.56</v>
       </c>
       <c r="F118" t="n">
-        <v>800</v>
-      </c>
-      <c r="G118" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>LAPU2</t>
+          <t>JDT25</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Linternas Lamparas Led De Alta Potencia 2000lm Lapu2 Urrea</t>
+          <t>Juego De Destornilladores Trimaterial 25pz Jdt25 Urrea</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="E119" t="n">
-        <v>1190</v>
+        <v>891</v>
       </c>
       <c r="F119" t="n">
-        <v>999</v>
-      </c>
-      <c r="G119" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>LAPU3</t>
+          <t>JCM02</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Linternas Lamparas Led De Alta Potencia 3000 Lm Lapu3 Urrea</t>
+          <t>Juego De Herramienta En Caja Metálica 130 Pzs Jcm02 Urrea</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>2899</v>
       </c>
       <c r="E120" t="n">
-        <v>1900</v>
+        <v>2536.52</v>
       </c>
       <c r="F120" t="n">
-        <v>1710</v>
-      </c>
-      <c r="G120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>97</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>401SC</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Llave Angular Sin Contratuerca 1/2 401sc Urrea</t>
+          <t>Juego De Letras De Golpe 5 Mm (3/16 ) Urrea 42l5</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="E121" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>118.57</v>
-      </c>
-      <c r="G121" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>9433LU</t>
+          <t>52C</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Llave Monomando Corto Para Lavabo 9433lu Urrea</t>
+          <t>Juego De Llaves De Empotrar Roscables Compactas 52c Urrea</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2065</v>
+        <v>550</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F122" t="n">
-        <v>1584</v>
-      </c>
-      <c r="G122" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>9433LU</t>
+          <t>652</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Llave Monomando Corto Para Lavabo Fregadero Casa Baño Urrea</t>
+          <t>Juego De Llaves De Empotrar Soldable 652 Urrea</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>2065</v>
+        <v>730</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F123" t="n">
-        <v>1584</v>
-      </c>
-      <c r="G123" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>23640</t>
+          <t>EO</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Llave Para Tapa De Tambo 23640 Urrea</t>
+          <t>Juego De Manerales Grandes Eo Urrea</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="E124" t="n">
-        <v>500</v>
+        <v>993.28</v>
       </c>
       <c r="F124" t="n">
-        <v>440.31</v>
-      </c>
-      <c r="G124" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>5449B</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Matraca 1/2 Pulgada Reversible 48 Dientes Black 5449b Urrea</t>
+          <t>Juego De Manerales Grandes Kg Urrea</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="E125" t="n">
-        <v>710</v>
+        <v>470</v>
       </c>
       <c r="F125" t="n">
-        <v>596.88</v>
-      </c>
-      <c r="G125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,647 +3467,573 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>UP886H</t>
+          <t>EO</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Matraca Neumática De 1/2´´ Up886h Urrea</t>
+          <t>Juego De Manerales Grandes Neo Urrea - Cromo Accesorios Baño</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1159</v>
       </c>
       <c r="E126" t="n">
-        <v>1785</v>
+        <v>993.28</v>
       </c>
       <c r="F126" t="n">
-        <v>1766.05</v>
-      </c>
-      <c r="G126" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>5452FL</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Matraca Reversible Multiposiciones Cuadro 1/2 5452fl Urrea</t>
+          <t>Juego De Manerales Grandes Urrea Kg Zamac Acabado Cromo Acabado Cromado</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="E127" t="n">
-        <v>1455</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
+        <v>470</v>
+      </c>
+      <c r="F127" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>12CL</t>
+          <t>CIX</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Mezcladora 4´´ Para Lavabo Manerales De Palanca 12cl Urrea</t>
+          <t>Juego De Manerales Inox Cix Urrea</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>2650</v>
       </c>
       <c r="E128" t="n">
-        <v>1240</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
+        <v>2175</v>
+      </c>
+      <c r="F128" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4</v>
-      </c>
-      <c r="B129" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>QG</t>
+        </is>
+      </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Mezcladora 8´´ De Cocina Manerales Palanca 9333 Urrea</t>
+          <t>Juego De Manerales Qg Cromo Zamak Urrea</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="E129" t="n">
-        <v>1580</v>
+        <v>349</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>11CL.2</t>
+          <t>QGS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Mezcladora De 4  Para Lavabo Negro Mate 11cl.2 Urrea</t>
+          <t>Juego De Manerales Queen Grande Sin Chapetón Qgs Urrea</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1680</v>
+        <v>379</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F130" t="n">
-        <v>1669</v>
-      </c>
-      <c r="G130" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>12CL</t>
+          <t>CIX</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Mezcladora De Baño Urrea Baño 12cl Color Plateada Y Acabado Cromado</t>
+          <t>Juego De Manerales Urrea Grandes Inox Cix Mango En Cruz Acabado Mate Color Acero Inoxidable</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>2650</v>
       </c>
       <c r="E131" t="n">
-        <v>1240</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
+        <v>2175</v>
+      </c>
+      <c r="F131" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>46QC</t>
+          <t>UP711K</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Mezcladora P/lavabo 4 Queen Cubierta, Manera Urrea 46qc Acabado Cromado Color Plateado</t>
+          <t>Juego De Martillo Neumático Con 5 Cinceles Up711k Urrea</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1180</v>
+        <v>2906</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F132" t="n">
-        <v>1059</v>
-      </c>
-      <c r="G132" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Mezcladora Para Lavabo 4 Pulgadas 68yz Urrea</t>
+          <t>Juego De Números De Golpe 5 Mm (3/16 ) Urrea 42n5</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="E133" t="n">
-        <v>2695</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>67PN</t>
+          <t>J6011</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Mezcladora Para Lavabo 67pn Urrea</t>
+          <t>Juego De Puntas Bristol Hexágono De 3/8´´ 11 Pz J6011 Urrea</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="E134" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
+        <v>568.01</v>
+      </c>
+      <c r="F134" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>11cl</t>
+          <t>5466RS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Mezcladora Para Lavabo De 4 Cromo 11cl Urrea</t>
+          <t>Juego De Refacción Mango Articulado 1/2 5466rs Urrea</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E135" t="n">
-        <v>1560</v>
+        <v>174.47</v>
       </c>
       <c r="F135" t="n">
-        <v>1386.34</v>
-      </c>
-      <c r="G135" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>46QC</t>
+          <t>50900</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Mezcladora Para Lavabo De 4 Pulgadas 46qc Urrea</t>
+          <t>Juego De Sacabocados 7 Piezas Para Láminas 50900 Urrea</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>2245</v>
       </c>
       <c r="E136" t="n">
-        <v>1180</v>
+        <v>2110.45</v>
       </c>
       <c r="F136" t="n">
-        <v>1059</v>
-      </c>
-      <c r="G136" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>67PN</t>
+          <t>9600D</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Mezcladora Para Lavabo Urrea Tj 67pn - Cromo</t>
+          <t>Juego Desarmadores Combinados (8 Pzas),  Urrea 9600d</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E137" t="n">
-        <v>2019</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
+        <v>494.25</v>
+      </c>
+      <c r="F137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>9433PR</t>
+          <t>9600A</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Monomando Corto Redondo Moderno Acabado Cromo 9433pr Urrea</t>
+          <t>Juego Desarmadores Phillips 6 Pzas Ambar 9600a Urrea</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="E138" t="n">
-        <v>2961</v>
+        <v>430</v>
       </c>
       <c r="F138" t="n">
-        <v>2451.15</v>
-      </c>
-      <c r="G138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>9480.2</t>
+          <t>9500b</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Monomando Para Cocina 9480.2 Color Negro Urrea</t>
+          <t>Juego Extractor Cola Cochino Para Tornillos 5 Pz Urrea 9500b</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2400</v>
+        <v>219</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F139" t="n">
-        <v>2309</v>
-      </c>
-      <c r="G139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>9444INOX</t>
+          <t>9201B</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Monomando Para Cocina Con Cubierta Inox® Urrea 9444inox Color Acero Inoxidable</t>
+          <t>Juego Herramienta Eléctrica Urrea 9201b</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="E140" t="n">
-        <v>2939</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
+        <v>945</v>
+      </c>
+      <c r="F140" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Monomando Para Cocina Nariz Retráctil 2 Funciones 9474 Urrea</t>
+          <t>Juego Llaves Válvulas Empotrar Roscables P/regadera 52 Urrea</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E141" t="n">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
-      </c>
-      <c r="G141" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>9480</t>
+          <t>2323A</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Monomando Para Fregadero 9480 Urrea</t>
+          <t>Juego Opresores De Resortes De Suspensión 9pzs Urrea 2323a</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="E142" t="n">
-        <v>2258</v>
+        <v>1961.43</v>
       </c>
       <c r="F142" t="n">
-        <v>2145.1</v>
-      </c>
-      <c r="G142" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>610YZ</t>
+          <t>JUP34</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Monomando Para Lavabo 610yz Urrea</t>
+          <t>Kit 34 Puntas Destornillador Amortiguador Jup34 Urrea</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>2910</v>
-      </c>
-      <c r="F143" t="inlineStr">
+        <v>410</v>
+      </c>
+      <c r="E143" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G143" t="n">
+      <c r="F143" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>9433PR</t>
+          <t>JDPU117</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Monomando Para Lavabo 9433pr Urrea</t>
+          <t>Kit Desarmador Destor.reparacion Celular 117pz Jdpu117 Urrea</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="E144" t="n">
-        <v>2961</v>
+        <v>538</v>
       </c>
       <c r="F144" t="n">
-        <v>2451.15</v>
-      </c>
-      <c r="G144" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>683YZ</t>
+          <t>USL008</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Monomando Regadera Cromo Empotrable Yaz 683yz Urrea</t>
+          <t>Lentes Seguridad Mujer Rosa Mica Transparente Usl008 Urrea</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="E145" t="n">
-        <v>4268</v>
+        <v>130</v>
       </c>
       <c r="F145" t="n">
-        <v>3968.68</v>
-      </c>
-      <c r="G145" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>681YZ</t>
+          <t>LPA10</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Monomando Regadera/tina Cromo Yaz 681yz Urrea</t>
+          <t>Linterna A Prueba De Agua 100 Lm A Baterías Urrea</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="E146" t="n">
-        <v>2550</v>
+        <v>277.77</v>
       </c>
       <c r="F146" t="n">
-        <v>2525</v>
-      </c>
-      <c r="G146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>681YZ</t>
+          <t>LPA10</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Monomando Regadera/tina Cromo Yaz Urrea 681yz</t>
+          <t>Linterna A Prueba De Agua 100 Lm A Baterías Urrea Lpa10</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="E147" t="n">
-        <v>2550</v>
+        <v>277.77</v>
       </c>
       <c r="F147" t="n">
-        <v>2525</v>
-      </c>
-      <c r="G147" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NL2</t>
+          <t>LPA35</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Nivel Láser De Líneas Urrea Nl2 10m</t>
+          <t>Linterna A Prueba De Agua 350 Lumenes Aaa Baterias Urrea</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E148" t="n">
-        <v>1664</v>
+        <v>555</v>
       </c>
       <c r="F148" t="n">
-        <v>1556.25</v>
-      </c>
-      <c r="G148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NL2E</t>
+          <t>LPA35</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Nivel Láser De Líneas Urrea Nl2e 7m</t>
+          <t>Linterna A Prueba De Agua 350 Lumenes Bateria 3a Urrea Lpa35</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E149" t="n">
-        <v>1138</v>
+        <v>555</v>
       </c>
       <c r="F149" t="n">
-        <v>887</v>
-      </c>
-      <c r="G149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,78 +4043,69 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NL2</t>
+          <t>LAPU1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Nivel Láser Semiautomático 2 Líneas Urrea</t>
+          <t>Linterna De Alta Potencia Recargable Lapu1 Urrea</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E150" t="n">
-        <v>1664</v>
+        <v>830.46</v>
       </c>
       <c r="F150" t="n">
-        <v>1556.25</v>
-      </c>
-      <c r="G150" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>UNT12</t>
+          <t>LAPU3</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Nivel Tipo Torpedo 9 Pulgadas 3 Burbujas Unt12 Urrea</t>
+          <t>Linterna De Led De Alta Potencia Recargables De 3000lm Urrea Color De La Linterna Negro Color De La Luz Blanco</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E151" t="n">
-        <v>440</v>
+        <v>1710</v>
       </c>
       <c r="F151" t="n">
-        <v>383.19</v>
-      </c>
-      <c r="G151" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>LRU6A</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Opresor De Anillos 3-5 Acanadado 2318 Urrea</t>
+          <t>Linterna De Led Recargable Con Alarma De 600 Lm Urrea Color De La Luz Blanco</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E152" t="n">
-        <v>489</v>
+        <v>1178.51</v>
       </c>
       <c r="F152" t="n">
-        <v>434</v>
-      </c>
-      <c r="G152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,213 +4115,193 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>212G</t>
+          <t>LPL30</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Pinza Corte Al Ras Para Plástico 6 212g Urrea</t>
+          <t>Linterna De Led Tipo Pluma Recargable De 300lm Lpl30 Urrea</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" t="n">
-        <v>468</v>
+        <v>665</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F153" t="n">
-        <v>395</v>
-      </c>
-      <c r="G153" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>259GHL</t>
+          <t>LRU6A</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Pinza Electricista Alta Palanca Poncha 9-5/16in 259ghl Urrea</t>
+          <t>Linterna Led Recargable Usb 600lm Lru6a Alarma Urrea</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E154" t="n">
-        <v>590</v>
+        <v>1050</v>
       </c>
       <c r="F154" t="n">
-        <v>540</v>
-      </c>
-      <c r="G154" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>209GCA</t>
+          <t>LR14</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Pinza Electricista Corte Diagonal Compuesta 7 209gca Urrea</t>
+          <t>Linterna Led Reflectora 1400 Lm Contra Agua Lr14 Urrea</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="n">
-        <v>480</v>
+        <v>1850</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F155" t="n">
-        <v>385</v>
-      </c>
-      <c r="G155" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>LAPU2</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Pinza Para Abrazadera Junta Homocinética 2357 Urrea</t>
+          <t>Linterna Urrea Lapu2 Alta Potencia Recargable 2000lm Pesado Linterna Negro Luz Blanco</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="E156" t="n">
-        <v>540</v>
+        <v>800</v>
       </c>
       <c r="F156" t="n">
-        <v>440.31</v>
-      </c>
-      <c r="G156" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>LAPU2</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Pinza Para Anillos De Retención Convertibles 45° 370 Urrea</t>
+          <t>Linternas Lamparas Led De Alta Potencia 2000lm Lapu2 Urrea</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="E157" t="n">
-        <v>425</v>
+        <v>999</v>
       </c>
       <c r="F157" t="n">
-        <v>394</v>
-      </c>
-      <c r="G157" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>258MP</t>
+          <t>LAPU3</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Pinza Para Electricista Univ 8 Multi Propósitos 258mp Urrea</t>
+          <t>Linternas Lamparas Led De Alta Potencia 3000 Lm Lapu3 Urrea</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E158" t="n">
-        <v>538</v>
+        <v>1710</v>
       </c>
       <c r="F158" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="G158" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>401SC</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Pinza Pelacables Para Fibra Óptica 310 Urrea</t>
+          <t>Llave Angular Sin Contratuerca 1/2 401sc Urrea</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="E159" t="n">
-        <v>621</v>
+        <v>135</v>
       </c>
       <c r="F159" t="n">
-        <v>552.75</v>
-      </c>
-      <c r="G159" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Li812</t>
+          <t>318QC</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Pistola De Impacto 1/2 Urrea Li812 Uso Rudo 1100w Uso Pesado</t>
+          <t>Llave Mezcladora Cocina Fregadero 8 Pulgadas 318qc Urrea</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E160" t="n">
-        <v>3600</v>
+        <v>1549</v>
       </c>
       <c r="F160" t="n">
-        <v>3140</v>
-      </c>
-      <c r="G160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4787,622 +4311,563 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Li812</t>
+          <t>9433LU</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Pistola De Impacto Eléctrica 1/2 1100w 120v Li812 Urrea</t>
+          <t>Llave Monomando Corto Para Lavabo 9433lu Urrea</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>2065</v>
       </c>
       <c r="E161" t="n">
-        <v>3600</v>
+        <v>1584</v>
       </c>
       <c r="F161" t="n">
-        <v>3180</v>
-      </c>
-      <c r="G161" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>UPC731</t>
+          <t>9433LU</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Pistola De Impacto Neumática 1/2, 5  Upc731 Urrea</t>
+          <t>Llave Monomando Corto Para Lavabo Fregadero Casa Baño Urrea</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>2065</v>
       </c>
       <c r="E162" t="n">
-        <v>5600</v>
+        <v>1584</v>
       </c>
       <c r="F162" t="n">
-        <v>4956</v>
-      </c>
-      <c r="G162" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>UPX731</t>
+          <t>23640</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Pistola Impacto Neumática 1/2puLG 1000 Ft-lb Upx731 Urrea</t>
+          <t>Llave Para Tapa De Tambo 23640 Urrea</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E163" t="n">
-        <v>5300</v>
+        <v>440.31</v>
       </c>
       <c r="F163" t="n">
-        <v>3815</v>
-      </c>
-      <c r="G163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>9817</t>
+          <t>JCB02</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Portarrollo Inox 9817 Marca Urrea</t>
+          <t>Maletin Autocle Dados Llave Matraca 230pzas Urrea Jcb02</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1160</v>
+        <v>4200</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F164" t="n">
-        <v>863</v>
-      </c>
-      <c r="G164" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PVU01</t>
+          <t>4766</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Probador De Voltaje Sin Contacto 24v A 1000v Pvu01 Urrea</t>
+          <t>Mango Articulado 1/4 Pulgada X 5-3/16 Pulgadas 4766 Urrea</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
-        <v>557</v>
+        <v>280</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F165" t="n">
-        <v>545</v>
-      </c>
-      <c r="G165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>USFS1</t>
+          <t>5449B</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Protector Facial Anatómico Usfs1 Urrea</t>
+          <t>Matraca 1/2 Pulgada Reversible 48 Dientes Black 5449b Urrea</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="E166" t="n">
-        <v>550</v>
+        <v>635</v>
       </c>
       <c r="F166" t="n">
-        <v>443.41</v>
-      </c>
-      <c r="G166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>3031FB.2</t>
+          <t>5649</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Regadera 3 Funciones Brazo Y Chapetón Negro 3031fb.2 Urrea</t>
+          <t>Matraca 3/4  Reversible 5649 Urrea</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1770</v>
       </c>
       <c r="E167" t="n">
-        <v>695</v>
+        <v>1747.25</v>
       </c>
       <c r="F167" t="n">
-        <v>679</v>
-      </c>
-      <c r="G167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>6</v>
-      </c>
-      <c r="B168" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>524947N</t>
+        </is>
+      </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Regadera 3001b Urrea</t>
+          <t>Matraca 3/8 -1/4 Reversible Doble Cuadro  524947n Urrea</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>520</v>
+        <v>675</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>3036B</t>
+          <t>5249G</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Regadera 5 Funciones C/ Brazo Y Chapetón Urrea 3036b Cromo Acabado Cromado Color Plateado</t>
+          <t>Matraca 3/8 Inch Reversible Acodada 72 Dientes 5249g Urrea</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="E169" t="n">
-        <v>610</v>
+        <v>497.42</v>
       </c>
       <c r="F169" t="n">
-        <v>541.45</v>
-      </c>
-      <c r="G169" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>3036B</t>
+          <t>4749T</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Regadera Abs 5 Funciones C/ Brazo Y Chapetón 3036b Urrea</t>
+          <t>Matraca De 1/4 Para Puntas Hexagonales Urrea 4749t</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="E170" t="n">
-        <v>610</v>
+        <v>450</v>
       </c>
       <c r="F170" t="n">
-        <v>541.45</v>
-      </c>
-      <c r="G170" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>298B</t>
+          <t>UP886H</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Regadera Bych Olimpica Urrea 298b Cromo Acabado Cromado</t>
+          <t>Matraca Neumática De 1/2´´ Up886h Urrea</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1785</v>
       </c>
       <c r="E171" t="n">
-        <v>1043</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
+        <v>1657.18</v>
+      </c>
+      <c r="F171" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>295B</t>
+          <t>5452FL</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Regadera Con Brazo Y Chapeton (cromo) Urrea Tpva 295b Acabado Cromado Color Plateado</t>
+          <t>Matraca Reversible Multiposiciones Cuadro 1/2 5452fl Urrea</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>798</v>
+        <v>1455</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F172" t="n">
-        <v>792</v>
-      </c>
-      <c r="G172" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>295B</t>
+          <t>12CL</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Regadera Con Brazo Y Chapetón 295b Urrea</t>
+          <t>Mezcladora 4´´ Para Lavabo Manerales De Palanca 12cl Urrea</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>798</v>
+        <v>1240</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F173" t="n">
-        <v>792</v>
-      </c>
-      <c r="G173" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>5</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>298B</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Regadera Con Brazo Y Chapetón 298b Urrea Acabado Cromo</t>
+          <t>Mezcladora 8´´ De Cocina Manerales Palanca 9333 Urrea</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="E174" t="n">
-        <v>1043</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>3002B</t>
+          <t>11CL.2</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Regadera Con Brazo Y Chapetón 8.6 Cm Diámetro 3002b Urrea</t>
+          <t>Mezcladora De 4  Para Lavabo Negro Mate 11cl.2 Urrea</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="E175" t="n">
-        <v>792</v>
+        <v>1659</v>
       </c>
       <c r="F175" t="n">
-        <v>669</v>
-      </c>
-      <c r="G175" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>3002B</t>
+          <t>318QC</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Regadera Con Brazo Y Chapetón Urrea 3002b Acabado Cromado Color Plateado</t>
+          <t>Mezcladora De 8 Cubierta Y Manerales Queen Urrea 318qc Color Cromo</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E176" t="n">
-        <v>792</v>
+        <v>1549</v>
       </c>
       <c r="F176" t="n">
-        <v>669</v>
-      </c>
-      <c r="G176" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3</v>
-      </c>
-      <c r="B177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>12CL</t>
+        </is>
+      </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Regadera Cuadrada Con Brazo Y Chapetón Marca Urrea Mod 2261b Acabado Cromado Color Plateado</t>
+          <t>Mezcladora De Baño Urrea Baño 12cl Color Plateada Y Acabado Cromado</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
-      </c>
-      <c r="E177" t="n">
-        <v>2059</v>
+        <v>1240</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>3031B.2</t>
+          <t>46QC</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Regadera De Cebolla Brazo Y Chapetón Negromate 3031b.2 Urrea</t>
+          <t>Mezcladora P/lavabo 4 Queen Cubierta, Manera Urrea 46qc Acabado Cromado Color Plateado</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="E178" t="n">
-        <v>575</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F178" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>3007B</t>
+          <t>68YZ</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Regadera De Cebolla Sencilla C/brazo Y Chapetón 3007b Urrea</t>
+          <t>Mezcladora Para Lavabo 4 Pulgadas 68yz Urrea</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>450</v>
-      </c>
-      <c r="F179" t="inlineStr">
+        <v>2695</v>
+      </c>
+      <c r="E179" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G179" t="n">
+      <c r="F179" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>67PN</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Regadera Forma De Teléfono 2014 Urrea</t>
+          <t>Mezcladora Para Lavabo 67pn Urrea</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1950</v>
-      </c>
-      <c r="F180" t="inlineStr">
+        <v>2019</v>
+      </c>
+      <c r="E180" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G180" t="n">
+      <c r="F180" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2260B</t>
+          <t>11cl</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Regadera Redonda Con Brazo Y Chapetón Cromo 2260b Urrea</t>
+          <t>Mezcladora Para Lavabo De 4 Cromo 11cl Urrea</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="E181" t="n">
-        <v>1935</v>
+        <v>1370</v>
       </c>
       <c r="F181" t="n">
-        <v>1639</v>
-      </c>
-      <c r="G181" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>3007B</t>
+          <t>46QC</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Regadera Redonda Cromada 8.5 Cm Con Brazo Baño Moderna Urrea Acabado Cromado Color Plateado</t>
+          <t>Mezcladora Para Lavabo De 4 Pulgadas 46qc Urrea</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="E182" t="n">
-        <v>450</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
+        <v>1059</v>
+      </c>
+      <c r="F182" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2260B.9</t>
+          <t>67PN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Regadera Urrea 2260b.9 20cm Con Brazo Y Chapetón</t>
+          <t>Mezcladora Para Lavabo Urrea Tj 67pn - Cromo</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>2036</v>
+        <v>2019</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F183" t="n">
-        <v>1890.4</v>
-      </c>
-      <c r="G183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,402 +4877,1941 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2260B.9</t>
+          <t>9433PR</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Regadera Urrea 2260b.9 20cm Con Brazo Y Chapetón Neo Acabado Acero Inoxidable Color Acero Inoxidable</t>
+          <t>Monomando Corto Redondo Moderno Acabado Cromo 9433pr Urrea</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>2961</v>
       </c>
       <c r="E184" t="n">
-        <v>2036</v>
+        <v>2451.15</v>
       </c>
       <c r="F184" t="n">
-        <v>1890.4</v>
-      </c>
-      <c r="G184" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>9710</t>
+          <t>9480.2</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Repisa Portajabón Esquinera Inoxidable 9710 Urrea</t>
+          <t>Monomando Para Cocina 9480.2 Color Negro Urrea</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E185" t="n">
-        <v>1120</v>
+        <v>2309</v>
       </c>
       <c r="F185" t="n">
-        <v>955</v>
-      </c>
-      <c r="G185" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RM712D</t>
+          <t>9444INOX</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Rotomartillo 1/2  1050w 120v Uso Pesado Rm712d Urrea</t>
+          <t>Monomando Para Cocina Con Cubierta Inox® Urrea 9444inox Color Acero Inoxidable</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" t="n">
-        <v>2290</v>
+        <v>2939</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F186" t="n">
-        <v>1694.7</v>
-      </c>
-      <c r="G186" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>SOLI1020-220</t>
-        </is>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Soldadora Inverter De 220 V Frecuencia De 60 Hz Urrea Color Negro</t>
+          <t>Monomando Para Cocina Nariz Retráctil 2 Funciones 9474 Urrea</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E187" t="n">
-        <v>7145</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>5861.32</v>
-      </c>
-      <c r="G187" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SOLI1020-220</t>
+          <t>9480</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Soldadora Inverter De 220 V Soli1020-220 Urrea</t>
+          <t>Monomando Para Fregadero 9480 Urrea</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>2258</v>
       </c>
       <c r="E188" t="n">
-        <v>7145</v>
+        <v>2145.1</v>
       </c>
       <c r="F188" t="n">
-        <v>5861.32</v>
-      </c>
-      <c r="G188" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>322G</t>
+          <t>610YZ</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Tijera Para Hojalatero 12 3/4 322g Urrea</t>
+          <t>Monomando Para Lavabo 610yz Urrea</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="n">
-        <v>410</v>
-      </c>
-      <c r="F189" t="inlineStr">
+        <v>2910</v>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G189" t="n">
+      <c r="F189" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>9805</t>
+          <t>9433PR</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Toallero De Barra Para Baño 9805 Urrea</t>
+          <t>Monomando Para Lavabo 9433pr Urrea</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>2961</v>
       </c>
       <c r="E190" t="n">
-        <v>1200</v>
+        <v>2451.15</v>
       </c>
       <c r="F190" t="n">
-        <v>931.76</v>
-      </c>
-      <c r="G190" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>6007FL</t>
+          <t>100CL</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Torquimetro Escala Cuadro De 3/8 , 5-75 Ft-lb 6007fl Urrea</t>
+          <t>Monomando Para Lavabo Corto 100cl Urrea</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
-      </c>
-      <c r="E191" t="n">
-        <v>3485</v>
-      </c>
-      <c r="F191" t="inlineStr">
+        <v>1420</v>
+      </c>
+      <c r="E191" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G191" t="n">
+      <c r="F191" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TNL</t>
+          <t>683YZ</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Tripie Para Nivel Láser 1.3 M Tnl Urrea</t>
+          <t>Monomando Regadera Cromo Empotrable Yaz 683yz Urrea</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>4268</v>
       </c>
       <c r="E192" t="n">
-        <v>820</v>
+        <v>3963.46</v>
       </c>
       <c r="F192" t="n">
-        <v>725</v>
-      </c>
-      <c r="G192" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>100CL</t>
+          <t>681YZ</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Urrea Lia 100cl Acabado Cromado</t>
+          <t>Monomando Regadera/tina Cromo Yaz 681yz Urrea</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="E193" t="n">
-        <v>1420</v>
+        <v>2525</v>
       </c>
       <c r="F193" t="n">
-        <v>1211.36</v>
-      </c>
-      <c r="G193" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>86N.19</t>
+          <t>681YZ</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Valvula De Retencion Columpio 3/4´´ 86n.19 Urrea</t>
+          <t>Monomando Regadera/tina Cromo Yaz Urrea 681yz</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="E194" t="n">
-        <v>295</v>
+        <v>2525</v>
       </c>
       <c r="F194" t="n">
-        <v>230</v>
-      </c>
-      <c r="G194" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Valvula Retencion Columpio 1/2 Wog 200lb/pul Vrc01.13 Urrea</t>
+          <t>Moto-tool Neumático 1/4 22000rpm Uso Pesado Urrea Frecuencia 60hz Potencia 0.5 Hp</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>2125</v>
       </c>
       <c r="E195" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
-      </c>
-      <c r="G195" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>VRC01.19</t>
+          <t>UP876</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Valvula Retencion Columpio 3/4 Wog 200lb/pul Vrc01.19 Urrea</t>
+          <t>Mototool  0.5 Hp Up876 Urrea</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>1335</v>
       </c>
       <c r="E196" t="n">
-        <v>455</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
+        <v>1116</v>
+      </c>
+      <c r="F196" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>12</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>VCR01.19</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Válvula De Compuerta Roscable 3/4'' Vcr01.19 Urrea</t>
+          <t>Mototool Neumatico 14 2200 0 Rpm Angular Up875 Urrea</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>2125</v>
       </c>
       <c r="E197" t="n">
-        <v>190</v>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
+        <v>7</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>UP860</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Mototool Neumatico Recto 1/4´´ Up860 Urrea</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>1215</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>7</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>UP876</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Mototool Neumático 1/4 25,000 Rpm Urrea Potencia 0.5 Hp</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>1335</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1116</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>6</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>18575</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Multiherramientas 12 En 1 Retractil C/funda Urrea 18575</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>826</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>4</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>UD12</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Multímetro Compacto 600 Vcd/600 Vca Ud12 Urrea</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>1155</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1043.1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>3</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>UD333</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Multímetro Digital De Gancho Uso General Ud333 Urrea</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>2540</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2395.13</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>4</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>NL2</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Nivel Láser De Líneas Urrea Nl2 10m</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>1664</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1556.25</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>6</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>NL2E</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Nivel Láser De Líneas Urrea Nl2e 7m</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>1138</v>
+      </c>
+      <c r="E204" t="n">
+        <v>887</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>4</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>NL2</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Nivel Láser Semiautomático 2 Líneas Urrea</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>1664</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1556.25</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>8</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>UNT12</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Nivel Tipo Torpedo 9 Pulgadas 3 Burbujas Unt12 Urrea</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>440</v>
+      </c>
+      <c r="E206" t="n">
+        <v>383.19</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2318</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Opresor De Anillos 3-5 Acanadado 2318 Urrea</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>489</v>
+      </c>
+      <c r="E207" t="n">
+        <v>434</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>5</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>212G</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Pinza Corte Al Ras Para Plástico 6 212g Urrea</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>468</v>
+      </c>
+      <c r="E208" t="n">
+        <v>395</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>20</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>293WR</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Pinza De Presion 5 Quijada Curva C/corta Alambre 293wr Urrea</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>225</v>
+      </c>
+      <c r="E209" t="n">
+        <v>196.78</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>3</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>266R</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Pinza De Presion De 11¨ Ajustable Tipo C 266r Urrea</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>520</v>
+      </c>
+      <c r="E210" t="n">
+        <v>517</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Pinza De Presión Quijada Curva 10¨ Uso Pesado 4102 Urrea</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>515</v>
+      </c>
+      <c r="E211" t="n">
+        <v>445.17</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>4</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>259GHL</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Pinza Electricista Alta Palanca Poncha 9-5/16in 259ghl Urrea</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>590</v>
+      </c>
+      <c r="E212" t="n">
+        <v>540</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>6</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>209GCA</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Pinza Electricista Corte Diagonal Compuesta 7 209gca Urrea</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>480</v>
+      </c>
+      <c r="E213" t="n">
+        <v>385</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Pinza Para Abrazadera Junta Homocinética 2357 Urrea</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>540</v>
+      </c>
+      <c r="E214" t="n">
+        <v>440.31</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>5</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Pinza Para Anillos De Retención Convertibles 45° 370 Urrea</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>425</v>
+      </c>
+      <c r="E215" t="n">
+        <v>394</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>4</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>258MP</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Pinza Para Electricista Univ 8 Multi Propósitos 258mp Urrea</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>538</v>
+      </c>
+      <c r="E216" t="n">
+        <v>478.8</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>3</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>18290</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Pinza Pelacable Multiherramienta 12en1 C/estuche Urrea 18290</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>532</v>
+      </c>
+      <c r="E217" t="n">
+        <v>387</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
         <v>10</v>
       </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Pinza Pelacables Para Fibra Óptica 310 Urrea</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>621</v>
+      </c>
+      <c r="E218" t="n">
+        <v>552.75</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>292WRG</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Pinza Presión Mangobimaterial 10 Quijada Curva 292wrg Urrea</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>405</v>
+      </c>
+      <c r="E219" t="n">
+        <v>257.91</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>6</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Li812</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Pistola De Impacto 1/2 Urrea Li812 Uso Rudo 1100w Uso Pesado</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>6</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Li812</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Pistola De Impacto Eléctrica 1/2 1100w 120v Li812 Urrea</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3180</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>UPC731</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Pistola De Impacto Neumática 1/2, 5  Upc731 Urrea</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>5600</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4956</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>7</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>UP722</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Pistola De Impacto Neumática 3/8 Up722 Urrea</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>1650</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1405</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>5</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>UP731</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Pistola Impacto 1/2 400ft/lb Mod. Up731 Urrea</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>5510</v>
+      </c>
+      <c r="E224" t="n">
+        <v>3999</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>UP731A</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Pistola Impacto Neumática 1/2 442.7ft-lb Up731a Urrea</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>3850</v>
+      </c>
+      <c r="E225" t="n">
+        <v>3569</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>UPX731</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Pistola Impacto Neumática 1/2puLG 1000 Ft-lb Upx731 Urrea</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>5300</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3815</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>PPG13</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Pistola Para Pintar De Gravedad 600 Ml 1.3 Mm Ppg13 Urrea</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>3510</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>9817</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Portarrollo Inox 9817 Marca Urrea</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>1160</v>
+      </c>
+      <c r="E228" t="n">
+        <v>863</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>5</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>PVU01</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Probador De Voltaje Sin Contacto 24v A 1000v Pvu01 Urrea</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>557</v>
+      </c>
+      <c r="E229" t="n">
+        <v>545</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>8</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>USFS1</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Protector Facial Anatómico Usfs1 Urrea</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>550</v>
+      </c>
+      <c r="E230" t="n">
+        <v>443.41</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>8</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>3031FB.2</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Regadera 3 Funciones Brazo Y Chapetón Negro 3031fb.2 Urrea</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>695</v>
+      </c>
+      <c r="E231" t="n">
+        <v>679</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>6</v>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Regadera 3001b Urrea</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>520</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>7</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>3036B</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Regadera 5 Funciones C/ Brazo Y Chapetón Urrea 3036b Cromo Acabado Cromado Color Plateado</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>610</v>
+      </c>
+      <c r="E233" t="n">
+        <v>541.45</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>7</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>3036B</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Regadera Abs 5 Funciones C/ Brazo Y Chapetón 3036b Urrea</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>610</v>
+      </c>
+      <c r="E234" t="n">
+        <v>541.45</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>5</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>298B</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Regadera Bych Olimpica Urrea 298b Cromo Acabado Cromado</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>5</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>295B</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Regadera Con Brazo Y Chapeton (cromo) Urrea Tpva 295b Acabado Cromado Color Plateado</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>798</v>
+      </c>
+      <c r="E236" t="n">
+        <v>792</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>5</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>295B</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Regadera Con Brazo Y Chapetón 295b Urrea</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>798</v>
+      </c>
+      <c r="E237" t="n">
+        <v>792</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>5</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>298B</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Regadera Con Brazo Y Chapetón 298b Urrea Acabado Cromo</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>5</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>3002B</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Regadera Con Brazo Y Chapetón 8.6 Cm Diámetro 3002b Urrea</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>792</v>
+      </c>
+      <c r="E239" t="n">
+        <v>669</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>5</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>3002B</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Regadera Con Brazo Y Chapetón Urrea 3002b Acabado Cromado Color Plateado</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>792</v>
+      </c>
+      <c r="E240" t="n">
+        <v>669</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>3</v>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Regadera Cuadrada Con Brazo Y Chapetón Cromo 2261b Urrea</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>2059</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>3</v>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Regadera Cuadrada Con Brazo Y Chapetón Marca Urrea Mod 2261b Acabado Cromado Color Plateado</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>2059</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>3031B.2</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Regadera De Cebolla Brazo Y Chapetón Negromate 3031b.2 Urrea</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>575</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>4</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>3007B</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Regadera De Cebolla Sencilla C/brazo Y Chapetón 3007b Urrea</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>450</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>3</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Regadera Forma De Teléfono 2014 Urrea</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2260B</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Regadera Redonda Con Brazo Y Chapetón Cromo 2260b Urrea</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>1935</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>4</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>3007B</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Regadera Redonda Cromada 8.5 Cm Con Brazo Baño Moderna Urrea Acabado Cromado Color Plateado</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>450</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>3</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2260B.9</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Regadera Urrea 2260b.9 20cm Con Brazo Y Chapetón</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>2036</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1890.4</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>3</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2260B.9</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Regadera Urrea 2260b.9 20cm Con Brazo Y Chapetón Neo Acabado Acero Inoxidable Color Acero Inoxidable</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>2036</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1890.4</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>5</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>UPS15</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Remachadora Manual 10 Ups15 Urrea</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>650</v>
+      </c>
+      <c r="E250" t="n">
+        <v>583.5</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>3</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>9710</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Repisa Portajabón Esquinera Inoxidable 9710 Urrea</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>1120</v>
+      </c>
+      <c r="E251" t="n">
+        <v>955</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>5</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>RM712D</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Rotomartillo 1/2  1050w 120v Uso Pesado Rm712d Urrea</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>2290</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1694.7</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>3</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>SOLI1020-220</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Soldadora Inverter De 220 V Frecuencia De 60 Hz Urrea Color Negro</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>7145</v>
+      </c>
+      <c r="E253" t="n">
+        <v>5861.32</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>3</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>SOLI1020-220</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Soldadora Inverter De 220 V Soli1020-220 Urrea</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>7145</v>
+      </c>
+      <c r="E254" t="n">
+        <v>5861.32</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>9</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>322G</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Tijera Para Hojalatero 12 3/4 322g Urrea</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>410</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>5</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>9805</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Toallero De Barra Para Baño 9805 Urrea</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E256" t="n">
+        <v>931.76</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>5</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>6007FL</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Torquimetro Escala Cuadro De 3/8 , 5-75 Ft-lb 6007fl Urrea</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>3485</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>6</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>TNL</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Tripie Para Nivel Láser 1.3 M Tnl Urrea</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>820</v>
+      </c>
+      <c r="E258" t="n">
+        <v>725</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>11</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>100CL</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Urrea Lia 100cl Acabado Cromado</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>1420</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>6</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>86N.19</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Valvula De Retencion Columpio 3/4´´ 86n.19 Urrea</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>295</v>
+      </c>
+      <c r="E260" t="n">
+        <v>230</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>5</v>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Valvula Retencion Columpio 1/2 Wog 200lb/pul Vrc01.13 Urrea</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>355</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>5</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>VRC01.19</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Valvula Retencion Columpio 3/4 Wog 200lb/pul Vrc01.19 Urrea</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>455</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>12</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>VCR01.19</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Válvula De Compuerta Roscable 3/4'' Vcr01.19 Urrea</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>190</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>10</v>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
         <is>
           <t>Válvula De Retención De Columpio 1¨ Vrc01.25 Urrea</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="n">
+      <c r="D264" t="n">
         <v>790</v>
       </c>
-      <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="n">
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="n">
         <v>0</v>
       </c>
     </row>
